--- a/VersionRecords/Version 5.1.0/版本Bug和特性计划及评审表v5.1.0_马丁组.xlsx
+++ b/VersionRecords/Version 5.1.0/版本Bug和特性计划及评审表v5.1.0_马丁组.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitDoc\Mogo_Doc\VersionRecords\Version 5.1.0\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="12630"/>
   </bookViews>
@@ -20,12 +15,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'版本5.0.5新特性|Fix Bug'!$A$1:$U$20</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="94">
   <si>
     <t>No</t>
   </si>
@@ -304,14 +299,26 @@
   </si>
   <si>
     <t>通过</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>脚本还没有审核，未测试</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>不通过</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -322,6 +329,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -329,6 +337,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -336,6 +345,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -343,29 +353,34 @@
       <sz val="11"/>
       <color indexed="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -373,16 +388,19 @@
       <b/>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -431,7 +449,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -537,6 +555,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -558,7 +602,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -703,6 +747,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -715,10 +765,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1099,14 +1149,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="6.875" style="25" customWidth="1"/>
     <col min="2" max="3" width="9.875" style="25" customWidth="1"/>
@@ -1132,7 +1182,7 @@
     <col min="23" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="23" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:22" s="23" customFormat="1" ht="27">
       <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
@@ -1197,7 +1247,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="24" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:22" s="24" customFormat="1" ht="18" customHeight="1">
       <c r="A2" s="29">
         <v>1</v>
       </c>
@@ -1238,7 +1288,9 @@
       <c r="N2" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="O2" s="37"/>
+      <c r="O2" s="37" t="s">
+        <v>93</v>
+      </c>
       <c r="P2" s="32"/>
       <c r="Q2" s="37"/>
       <c r="R2" s="34"/>
@@ -1247,7 +1299,7 @@
       <c r="U2" s="43"/>
       <c r="V2" s="44"/>
     </row>
-    <row r="3" spans="1:22" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:22" s="24" customFormat="1" ht="16.5">
       <c r="A3" s="29">
         <v>2</v>
       </c>
@@ -1288,7 +1340,9 @@
       <c r="N3" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="37"/>
+      <c r="O3" s="37" t="s">
+        <v>93</v>
+      </c>
       <c r="P3" s="32"/>
       <c r="Q3" s="37"/>
       <c r="R3" s="34"/>
@@ -1297,7 +1351,7 @@
       <c r="U3" s="45"/>
       <c r="V3" s="44"/>
     </row>
-    <row r="4" spans="1:22" s="24" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:22" s="24" customFormat="1" ht="16.5" customHeight="1">
       <c r="A4" s="29">
         <v>3</v>
       </c>
@@ -1353,7 +1407,7 @@
       <c r="U4" s="43"/>
       <c r="V4" s="44"/>
     </row>
-    <row r="5" spans="1:22" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:22" s="24" customFormat="1" ht="16.5">
       <c r="A5" s="29">
         <v>4</v>
       </c>
@@ -1409,7 +1463,7 @@
       <c r="U5" s="45"/>
       <c r="V5" s="44"/>
     </row>
-    <row r="6" spans="1:22" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:22" s="24" customFormat="1" ht="16.5">
       <c r="A6" s="29">
         <v>5</v>
       </c>
@@ -1465,7 +1519,7 @@
       <c r="U6" s="45"/>
       <c r="V6" s="44"/>
     </row>
-    <row r="7" spans="1:22" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:22" s="24" customFormat="1" ht="16.5">
       <c r="A7" s="29">
         <v>6</v>
       </c>
@@ -1521,7 +1575,7 @@
       <c r="U7" s="45"/>
       <c r="V7" s="44"/>
     </row>
-    <row r="8" spans="1:22" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:22" s="24" customFormat="1" ht="16.5">
       <c r="A8" s="29">
         <v>7</v>
       </c>
@@ -1577,7 +1631,7 @@
       <c r="U8" s="45"/>
       <c r="V8" s="44"/>
     </row>
-    <row r="9" spans="1:22" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:22" s="24" customFormat="1" ht="16.5">
       <c r="A9" s="29">
         <v>8</v>
       </c>
@@ -1633,7 +1687,7 @@
       <c r="U9" s="45"/>
       <c r="V9" s="44"/>
     </row>
-    <row r="10" spans="1:22" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:22" s="24" customFormat="1" ht="16.5">
       <c r="A10" s="29">
         <v>9</v>
       </c>
@@ -1671,19 +1725,23 @@
       <c r="M10" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="N10" s="31" t="s">
+      <c r="N10" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="O10" s="37"/>
-      <c r="P10" s="32"/>
+      <c r="O10" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="P10" s="37"/>
       <c r="Q10" s="37"/>
-      <c r="R10" s="34"/>
+      <c r="R10" s="55"/>
       <c r="S10" s="34"/>
       <c r="T10" s="42"/>
-      <c r="U10" s="45"/>
+      <c r="U10" s="45" t="s">
+        <v>91</v>
+      </c>
       <c r="V10" s="44"/>
     </row>
-    <row r="11" spans="1:22" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:22" s="24" customFormat="1" ht="16.5">
       <c r="A11" s="29">
         <v>10</v>
       </c>
@@ -1724,16 +1782,22 @@
       <c r="N11" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="O11" s="37"/>
-      <c r="P11" s="32"/>
-      <c r="Q11" s="37"/>
+      <c r="O11" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="P11" s="32">
+        <v>42681</v>
+      </c>
+      <c r="Q11" s="37" t="s">
+        <v>36</v>
+      </c>
       <c r="R11" s="34"/>
       <c r="S11" s="34"/>
       <c r="T11" s="42"/>
       <c r="U11" s="45"/>
       <c r="V11" s="44"/>
     </row>
-    <row r="12" spans="1:22" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:22" s="24" customFormat="1" ht="16.5">
       <c r="A12" s="29">
         <v>11</v>
       </c>
@@ -1771,23 +1835,25 @@
       <c r="M12" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="N12" s="53" t="s">
+      <c r="N12" s="49" t="s">
         <v>89</v>
       </c>
-      <c r="O12" s="52" t="s">
+      <c r="O12" s="48" t="s">
         <v>90</v>
       </c>
       <c r="P12" s="32">
         <v>42681</v>
       </c>
-      <c r="Q12" s="37"/>
+      <c r="Q12" s="37" t="s">
+        <v>36</v>
+      </c>
       <c r="R12" s="34"/>
       <c r="S12" s="34"/>
       <c r="T12" s="42"/>
       <c r="U12" s="45"/>
       <c r="V12" s="44"/>
     </row>
-    <row r="13" spans="1:22" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:22" s="24" customFormat="1" ht="16.5">
       <c r="A13" s="29">
         <v>12</v>
       </c>
@@ -1828,16 +1894,22 @@
       <c r="N13" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="O13" s="37"/>
-      <c r="P13" s="32"/>
-      <c r="Q13" s="37"/>
+      <c r="O13" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="P13" s="32">
+        <v>42681</v>
+      </c>
+      <c r="Q13" s="37" t="s">
+        <v>36</v>
+      </c>
       <c r="R13" s="34"/>
       <c r="S13" s="34"/>
       <c r="T13" s="42"/>
       <c r="U13" s="45"/>
       <c r="V13" s="44"/>
     </row>
-    <row r="14" spans="1:22" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:22" s="24" customFormat="1" ht="16.5">
       <c r="A14" s="29">
         <v>13</v>
       </c>
@@ -1875,17 +1947,25 @@
       <c r="M14" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="N14" s="31"/>
-      <c r="O14" s="37"/>
-      <c r="P14" s="32"/>
-      <c r="Q14" s="37"/>
+      <c r="N14" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="O14" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="P14" s="32">
+        <v>42681</v>
+      </c>
+      <c r="Q14" s="37" t="s">
+        <v>36</v>
+      </c>
       <c r="R14" s="34"/>
       <c r="S14" s="34"/>
       <c r="T14" s="42"/>
       <c r="U14" s="45"/>
       <c r="V14" s="44"/>
     </row>
-    <row r="15" spans="1:22" s="24" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:22" s="24" customFormat="1" ht="33">
       <c r="A15" s="29">
         <v>14</v>
       </c>
@@ -1926,13 +2006,13 @@
       <c r="N15" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="O15" s="52" t="s">
+      <c r="O15" s="48" t="s">
         <v>87</v>
       </c>
       <c r="P15" s="32">
         <v>42681</v>
       </c>
-      <c r="Q15" s="52" t="s">
+      <c r="Q15" s="48" t="s">
         <v>88</v>
       </c>
       <c r="R15" s="34"/>
@@ -1941,7 +2021,7 @@
       <c r="U15" s="45"/>
       <c r="V15" s="44"/>
     </row>
-    <row r="16" spans="1:22" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:22" s="24" customFormat="1" ht="16.5">
       <c r="A16" s="29">
         <v>15</v>
       </c>
@@ -1982,16 +2062,22 @@
       <c r="N16" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="O16" s="37"/>
-      <c r="P16" s="32"/>
-      <c r="Q16" s="37"/>
+      <c r="O16" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="P16" s="32">
+        <v>42681</v>
+      </c>
+      <c r="Q16" s="48" t="s">
+        <v>88</v>
+      </c>
       <c r="R16" s="34"/>
       <c r="S16" s="34"/>
       <c r="T16" s="34"/>
       <c r="U16" s="45"/>
       <c r="V16" s="44"/>
     </row>
-    <row r="17" spans="1:22" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:22" s="24" customFormat="1" ht="16.5">
       <c r="A17" s="29">
         <v>16</v>
       </c>
@@ -2047,7 +2133,7 @@
       <c r="U17" s="47"/>
       <c r="V17" s="44"/>
     </row>
-    <row r="18" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:22" ht="16.5">
       <c r="A18" s="29">
         <v>17</v>
       </c>
@@ -2088,17 +2174,21 @@
       <c r="N18" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="O18" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="P18" s="36"/>
-      <c r="Q18" s="35"/>
+      <c r="O18" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="P18" s="32">
+        <v>42681</v>
+      </c>
+      <c r="Q18" s="48" t="s">
+        <v>88</v>
+      </c>
       <c r="R18" s="34"/>
       <c r="S18" s="34"/>
       <c r="T18" s="34"/>
       <c r="U18" s="35"/>
     </row>
-    <row r="19" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:22" ht="16.5">
       <c r="A19" s="29">
         <v>18</v>
       </c>
@@ -2142,14 +2232,18 @@
       <c r="O19" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="P19" s="36"/>
-      <c r="Q19" s="35"/>
+      <c r="P19" s="32">
+        <v>42681</v>
+      </c>
+      <c r="Q19" s="48" t="s">
+        <v>88</v>
+      </c>
       <c r="R19" s="34"/>
       <c r="S19" s="34"/>
       <c r="T19" s="34"/>
       <c r="U19" s="35"/>
     </row>
-    <row r="20" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:22" ht="16.5">
       <c r="A20" s="29">
         <v>19</v>
       </c>
@@ -2200,7 +2294,7 @@
       <c r="T20" s="34"/>
       <c r="U20" s="35"/>
     </row>
-    <row r="21" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:22" ht="16.5">
       <c r="A21" s="34"/>
       <c r="B21" s="34"/>
       <c r="C21" s="34"/>
@@ -2223,7 +2317,7 @@
       <c r="T21" s="34"/>
       <c r="U21" s="35"/>
     </row>
-    <row r="22" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:22" ht="16.5">
       <c r="A22" s="34"/>
       <c r="B22" s="34"/>
       <c r="C22" s="34"/>
@@ -2246,7 +2340,7 @@
       <c r="T22" s="34"/>
       <c r="U22" s="35"/>
     </row>
-    <row r="23" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:22" ht="16.5">
       <c r="A23" s="34"/>
       <c r="B23" s="34"/>
       <c r="C23" s="34"/>
@@ -2269,7 +2363,7 @@
       <c r="T23" s="34"/>
       <c r="U23" s="35"/>
     </row>
-    <row r="24" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:22" ht="16.5">
       <c r="A24" s="34"/>
       <c r="B24" s="34"/>
       <c r="C24" s="34"/>
@@ -2292,7 +2386,7 @@
       <c r="T24" s="34"/>
       <c r="U24" s="35"/>
     </row>
-    <row r="25" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:22" ht="16.5">
       <c r="A25" s="34"/>
       <c r="B25" s="34"/>
       <c r="C25" s="34"/>
@@ -2315,7 +2409,7 @@
       <c r="T25" s="34"/>
       <c r="U25" s="35"/>
     </row>
-    <row r="26" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:22" ht="16.5">
       <c r="A26" s="34"/>
       <c r="B26" s="34"/>
       <c r="C26" s="34"/>
@@ -2338,7 +2432,7 @@
       <c r="T26" s="34"/>
       <c r="U26" s="35"/>
     </row>
-    <row r="27" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:22" ht="16.5">
       <c r="A27" s="34"/>
       <c r="B27" s="34"/>
       <c r="C27" s="34"/>
@@ -2361,7 +2455,7 @@
       <c r="T27" s="34"/>
       <c r="U27" s="35"/>
     </row>
-    <row r="28" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:22" ht="16.5">
       <c r="A28" s="34"/>
       <c r="B28" s="34"/>
       <c r="C28" s="34"/>
@@ -2384,7 +2478,7 @@
       <c r="T28" s="34"/>
       <c r="U28" s="35"/>
     </row>
-    <row r="29" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:22" ht="16.5">
       <c r="A29" s="34"/>
       <c r="B29" s="34"/>
       <c r="C29" s="34"/>
@@ -2407,7 +2501,7 @@
       <c r="T29" s="34"/>
       <c r="U29" s="35"/>
     </row>
-    <row r="30" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:22" ht="16.5">
       <c r="A30" s="34"/>
       <c r="B30" s="34"/>
       <c r="C30" s="34"/>
@@ -2430,7 +2524,7 @@
       <c r="T30" s="34"/>
       <c r="U30" s="35"/>
     </row>
-    <row r="31" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:22" ht="16.5">
       <c r="A31" s="34"/>
       <c r="B31" s="34"/>
       <c r="C31" s="34"/>
@@ -2453,7 +2547,7 @@
       <c r="T31" s="34"/>
       <c r="U31" s="35"/>
     </row>
-    <row r="32" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:22" ht="16.5">
       <c r="A32" s="34"/>
       <c r="B32" s="34"/>
       <c r="C32" s="34"/>
@@ -2476,7 +2570,7 @@
       <c r="T32" s="34"/>
       <c r="U32" s="35"/>
     </row>
-    <row r="33" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:21" ht="16.5">
       <c r="A33" s="34"/>
       <c r="B33" s="34"/>
       <c r="C33" s="34"/>
@@ -2499,7 +2593,7 @@
       <c r="T33" s="34"/>
       <c r="U33" s="35"/>
     </row>
-    <row r="34" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:21" ht="16.5">
       <c r="A34" s="34"/>
       <c r="B34" s="34"/>
       <c r="C34" s="34"/>
@@ -2522,7 +2616,7 @@
       <c r="T34" s="34"/>
       <c r="U34" s="35"/>
     </row>
-    <row r="35" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:21" ht="16.5">
       <c r="A35" s="34"/>
       <c r="B35" s="34"/>
       <c r="C35" s="34"/>
@@ -2545,7 +2639,7 @@
       <c r="T35" s="34"/>
       <c r="U35" s="35"/>
     </row>
-    <row r="36" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:21" ht="16.5">
       <c r="A36" s="34"/>
       <c r="B36" s="34"/>
       <c r="C36" s="34"/>
@@ -2568,7 +2662,7 @@
       <c r="T36" s="34"/>
       <c r="U36" s="35"/>
     </row>
-    <row r="37" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:21" ht="16.5">
       <c r="A37" s="34"/>
       <c r="B37" s="34"/>
       <c r="C37" s="34"/>
@@ -2591,7 +2685,7 @@
       <c r="T37" s="34"/>
       <c r="U37" s="35"/>
     </row>
-    <row r="38" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:21" ht="16.5">
       <c r="A38" s="34"/>
       <c r="B38" s="34"/>
       <c r="C38" s="34"/>
@@ -2614,7 +2708,7 @@
       <c r="T38" s="34"/>
       <c r="U38" s="35"/>
     </row>
-    <row r="39" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:21" ht="16.5">
       <c r="A39" s="34"/>
       <c r="B39" s="34"/>
       <c r="C39" s="34"/>
@@ -2637,7 +2731,7 @@
       <c r="T39" s="34"/>
       <c r="U39" s="35"/>
     </row>
-    <row r="40" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:21" ht="16.5">
       <c r="A40" s="34"/>
       <c r="B40" s="34"/>
       <c r="C40" s="34"/>
@@ -2660,7 +2754,7 @@
       <c r="T40" s="34"/>
       <c r="U40" s="35"/>
     </row>
-    <row r="41" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:21" ht="16.5">
       <c r="A41" s="34"/>
       <c r="B41" s="34"/>
       <c r="C41" s="34"/>
@@ -2683,7 +2777,7 @@
       <c r="T41" s="34"/>
       <c r="U41" s="35"/>
     </row>
-    <row r="42" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:21" ht="16.5">
       <c r="A42" s="34"/>
       <c r="B42" s="34"/>
       <c r="C42" s="34"/>
@@ -2706,7 +2800,7 @@
       <c r="T42" s="34"/>
       <c r="U42" s="35"/>
     </row>
-    <row r="43" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:21" ht="16.5">
       <c r="A43" s="34"/>
       <c r="B43" s="34"/>
       <c r="C43" s="34"/>
@@ -2729,7 +2823,7 @@
       <c r="T43" s="34"/>
       <c r="U43" s="35"/>
     </row>
-    <row r="44" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:21" ht="16.5">
       <c r="A44" s="34"/>
       <c r="B44" s="34"/>
       <c r="C44" s="34"/>
@@ -2752,7 +2846,7 @@
       <c r="T44" s="34"/>
       <c r="U44" s="35"/>
     </row>
-    <row r="45" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:21" ht="16.5">
       <c r="A45" s="34"/>
       <c r="B45" s="34"/>
       <c r="C45" s="34"/>
@@ -2775,7 +2869,7 @@
       <c r="T45" s="34"/>
       <c r="U45" s="35"/>
     </row>
-    <row r="46" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:21" ht="16.5">
       <c r="A46" s="34"/>
       <c r="B46" s="34"/>
       <c r="C46" s="34"/>
@@ -2798,7 +2892,7 @@
       <c r="T46" s="34"/>
       <c r="U46" s="35"/>
     </row>
-    <row r="47" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:21" ht="16.5">
       <c r="A47" s="34"/>
       <c r="B47" s="34"/>
       <c r="C47" s="34"/>
@@ -2821,7 +2915,7 @@
       <c r="T47" s="34"/>
       <c r="U47" s="35"/>
     </row>
-    <row r="48" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:21" ht="16.5">
       <c r="A48" s="34"/>
       <c r="B48" s="34"/>
       <c r="C48" s="34"/>
@@ -2844,7 +2938,7 @@
       <c r="T48" s="34"/>
       <c r="U48" s="35"/>
     </row>
-    <row r="49" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:21" ht="16.5">
       <c r="A49" s="34"/>
       <c r="B49" s="34"/>
       <c r="C49" s="34"/>
@@ -2867,7 +2961,7 @@
       <c r="T49" s="34"/>
       <c r="U49" s="35"/>
     </row>
-    <row r="50" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:21" ht="16.5">
       <c r="A50" s="34"/>
       <c r="B50" s="34"/>
       <c r="C50" s="34"/>
@@ -2890,7 +2984,7 @@
       <c r="T50" s="34"/>
       <c r="U50" s="35"/>
     </row>
-    <row r="51" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:21" ht="16.5">
       <c r="A51" s="34"/>
       <c r="B51" s="34"/>
       <c r="C51" s="34"/>
@@ -2913,7 +3007,7 @@
       <c r="T51" s="34"/>
       <c r="U51" s="35"/>
     </row>
-    <row r="52" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:21" ht="16.5">
       <c r="A52" s="34"/>
       <c r="B52" s="34"/>
       <c r="C52" s="34"/>
@@ -2936,7 +3030,7 @@
       <c r="T52" s="34"/>
       <c r="U52" s="35"/>
     </row>
-    <row r="53" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:21" ht="16.5">
       <c r="A53" s="34"/>
       <c r="B53" s="34"/>
       <c r="C53" s="34"/>
@@ -2959,7 +3053,7 @@
       <c r="T53" s="34"/>
       <c r="U53" s="35"/>
     </row>
-    <row r="54" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:21" ht="16.5">
       <c r="A54" s="34"/>
       <c r="B54" s="34"/>
       <c r="C54" s="34"/>
@@ -2982,7 +3076,7 @@
       <c r="T54" s="34"/>
       <c r="U54" s="35"/>
     </row>
-    <row r="55" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:21" ht="16.5">
       <c r="A55" s="34"/>
       <c r="B55" s="34"/>
       <c r="C55" s="34"/>
@@ -3005,7 +3099,7 @@
       <c r="T55" s="34"/>
       <c r="U55" s="35"/>
     </row>
-    <row r="56" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:21" ht="16.5">
       <c r="A56" s="34"/>
       <c r="B56" s="34"/>
       <c r="C56" s="34"/>
@@ -3028,7 +3122,7 @@
       <c r="T56" s="34"/>
       <c r="U56" s="35"/>
     </row>
-    <row r="57" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:21" ht="16.5">
       <c r="A57" s="34"/>
       <c r="B57" s="34"/>
       <c r="C57" s="34"/>
@@ -3051,7 +3145,7 @@
       <c r="T57" s="34"/>
       <c r="U57" s="35"/>
     </row>
-    <row r="58" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:21" ht="16.5">
       <c r="A58" s="34"/>
       <c r="B58" s="34"/>
       <c r="C58" s="34"/>
@@ -3074,7 +3168,7 @@
       <c r="T58" s="34"/>
       <c r="U58" s="35"/>
     </row>
-    <row r="59" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:21" ht="16.5">
       <c r="A59" s="34"/>
       <c r="B59" s="34"/>
       <c r="C59" s="34"/>
@@ -3097,7 +3191,7 @@
       <c r="T59" s="34"/>
       <c r="U59" s="35"/>
     </row>
-    <row r="60" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:21" ht="16.5">
       <c r="A60" s="34"/>
       <c r="B60" s="34"/>
       <c r="C60" s="34"/>
@@ -3120,7 +3214,7 @@
       <c r="T60" s="34"/>
       <c r="U60" s="35"/>
     </row>
-    <row r="61" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:21" ht="16.5">
       <c r="A61" s="34"/>
       <c r="B61" s="34"/>
       <c r="C61" s="34"/>
@@ -3143,7 +3237,7 @@
       <c r="T61" s="34"/>
       <c r="U61" s="35"/>
     </row>
-    <row r="62" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:21" ht="16.5">
       <c r="A62" s="34"/>
       <c r="B62" s="34"/>
       <c r="C62" s="34"/>
@@ -3166,7 +3260,7 @@
       <c r="T62" s="34"/>
       <c r="U62" s="35"/>
     </row>
-    <row r="63" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:21" ht="16.5">
       <c r="A63" s="34"/>
       <c r="B63" s="34"/>
       <c r="C63" s="34"/>
@@ -3189,7 +3283,7 @@
       <c r="T63" s="34"/>
       <c r="U63" s="35"/>
     </row>
-    <row r="64" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:21" ht="16.5">
       <c r="A64" s="34"/>
       <c r="B64" s="34"/>
       <c r="C64" s="34"/>
@@ -3212,7 +3306,7 @@
       <c r="T64" s="34"/>
       <c r="U64" s="35"/>
     </row>
-    <row r="65" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:21" ht="16.5">
       <c r="A65" s="34"/>
       <c r="B65" s="34"/>
       <c r="C65" s="34"/>
@@ -3235,7 +3329,7 @@
       <c r="T65" s="34"/>
       <c r="U65" s="35"/>
     </row>
-    <row r="66" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:21" ht="16.5">
       <c r="A66" s="34"/>
       <c r="B66" s="34"/>
       <c r="C66" s="34"/>
@@ -3258,7 +3352,7 @@
       <c r="T66" s="34"/>
       <c r="U66" s="35"/>
     </row>
-    <row r="67" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:21" ht="16.5">
       <c r="A67" s="34"/>
       <c r="B67" s="34"/>
       <c r="C67" s="34"/>
@@ -3281,7 +3375,7 @@
       <c r="T67" s="34"/>
       <c r="U67" s="35"/>
     </row>
-    <row r="68" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:21" ht="16.5">
       <c r="A68" s="34"/>
       <c r="B68" s="34"/>
       <c r="C68" s="34"/>
@@ -3304,7 +3398,7 @@
       <c r="T68" s="34"/>
       <c r="U68" s="35"/>
     </row>
-    <row r="69" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:21" ht="16.5">
       <c r="A69" s="34"/>
       <c r="B69" s="34"/>
       <c r="C69" s="34"/>
@@ -3327,7 +3421,7 @@
       <c r="T69" s="34"/>
       <c r="U69" s="35"/>
     </row>
-    <row r="70" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:21" ht="16.5">
       <c r="A70" s="34"/>
       <c r="B70" s="34"/>
       <c r="C70" s="34"/>
@@ -3350,7 +3444,7 @@
       <c r="T70" s="34"/>
       <c r="U70" s="35"/>
     </row>
-    <row r="71" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:21" ht="16.5">
       <c r="A71" s="34"/>
       <c r="B71" s="34"/>
       <c r="C71" s="34"/>
@@ -3373,7 +3467,7 @@
       <c r="T71" s="34"/>
       <c r="U71" s="35"/>
     </row>
-    <row r="72" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:21" ht="16.5">
       <c r="A72" s="34"/>
       <c r="B72" s="34"/>
       <c r="C72" s="34"/>
@@ -3396,7 +3490,7 @@
       <c r="T72" s="34"/>
       <c r="U72" s="35"/>
     </row>
-    <row r="73" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:21" ht="16.5">
       <c r="A73" s="34"/>
       <c r="B73" s="34"/>
       <c r="C73" s="34"/>
@@ -3419,7 +3513,7 @@
       <c r="T73" s="34"/>
       <c r="U73" s="35"/>
     </row>
-    <row r="74" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:21" ht="16.5">
       <c r="A74" s="34"/>
       <c r="B74" s="34"/>
       <c r="C74" s="34"/>
@@ -3442,7 +3536,7 @@
       <c r="T74" s="34"/>
       <c r="U74" s="35"/>
     </row>
-    <row r="75" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:21" ht="16.5">
       <c r="A75" s="34"/>
       <c r="B75" s="34"/>
       <c r="C75" s="34"/>
@@ -3465,7 +3559,7 @@
       <c r="T75" s="34"/>
       <c r="U75" s="35"/>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:21">
       <c r="A76" s="34"/>
       <c r="B76" s="34"/>
       <c r="C76" s="34"/>
@@ -3488,7 +3582,7 @@
       <c r="T76" s="34"/>
       <c r="U76" s="35"/>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:21">
       <c r="A77" s="34"/>
       <c r="B77" s="34"/>
       <c r="C77" s="34"/>
@@ -3511,7 +3605,7 @@
       <c r="T77" s="34"/>
       <c r="U77" s="35"/>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:21">
       <c r="A78" s="34"/>
       <c r="B78" s="34"/>
       <c r="C78" s="34"/>
@@ -3534,7 +3628,7 @@
       <c r="T78" s="34"/>
       <c r="U78" s="35"/>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:21">
       <c r="A79" s="34"/>
       <c r="B79" s="34"/>
       <c r="C79" s="34"/>
@@ -3557,7 +3651,7 @@
       <c r="T79" s="34"/>
       <c r="U79" s="35"/>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:21">
       <c r="A80" s="34"/>
       <c r="B80" s="34"/>
       <c r="C80" s="34"/>
@@ -3580,7 +3674,7 @@
       <c r="T80" s="34"/>
       <c r="U80" s="35"/>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:21">
       <c r="A81" s="34"/>
       <c r="B81" s="34"/>
       <c r="C81" s="34"/>
@@ -3603,7 +3697,7 @@
       <c r="T81" s="34"/>
       <c r="U81" s="35"/>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:21">
       <c r="A82" s="34"/>
       <c r="B82" s="34"/>
       <c r="C82" s="34"/>
@@ -3626,7 +3720,7 @@
       <c r="T82" s="34"/>
       <c r="U82" s="35"/>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:21">
       <c r="A83" s="34"/>
       <c r="B83" s="34"/>
       <c r="C83" s="34"/>
@@ -3649,7 +3743,7 @@
       <c r="T83" s="34"/>
       <c r="U83" s="35"/>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:21">
       <c r="A84" s="34"/>
       <c r="B84" s="34"/>
       <c r="C84" s="34"/>
@@ -3672,7 +3766,7 @@
       <c r="T84" s="34"/>
       <c r="U84" s="35"/>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:21">
       <c r="A85" s="34"/>
       <c r="B85" s="34"/>
       <c r="C85" s="34"/>
@@ -3695,7 +3789,7 @@
       <c r="T85" s="34"/>
       <c r="U85" s="35"/>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:21">
       <c r="A86" s="34"/>
       <c r="B86" s="34"/>
       <c r="C86" s="34"/>
@@ -3718,7 +3812,7 @@
       <c r="T86" s="34"/>
       <c r="U86" s="35"/>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:21">
       <c r="A87" s="34"/>
       <c r="B87" s="34"/>
       <c r="C87" s="34"/>
@@ -3741,7 +3835,7 @@
       <c r="T87" s="34"/>
       <c r="U87" s="35"/>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:21">
       <c r="A88" s="34"/>
       <c r="B88" s="34"/>
       <c r="C88" s="34"/>
@@ -3764,7 +3858,7 @@
       <c r="T88" s="34"/>
       <c r="U88" s="35"/>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:21">
       <c r="A89" s="34"/>
       <c r="B89" s="34"/>
       <c r="C89" s="34"/>
@@ -3787,7 +3881,7 @@
       <c r="T89" s="34"/>
       <c r="U89" s="35"/>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:21">
       <c r="A90" s="34"/>
       <c r="B90" s="34"/>
       <c r="C90" s="34"/>
@@ -3810,7 +3904,7 @@
       <c r="T90" s="34"/>
       <c r="U90" s="35"/>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:21">
       <c r="A91" s="34"/>
       <c r="B91" s="34"/>
       <c r="C91" s="34"/>
@@ -3833,7 +3927,7 @@
       <c r="T91" s="34"/>
       <c r="U91" s="35"/>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:21">
       <c r="A92" s="34"/>
       <c r="B92" s="34"/>
       <c r="C92" s="34"/>
@@ -3856,7 +3950,7 @@
       <c r="T92" s="34"/>
       <c r="U92" s="35"/>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:21">
       <c r="A93" s="34"/>
       <c r="B93" s="34"/>
       <c r="C93" s="34"/>
@@ -3879,7 +3973,7 @@
       <c r="T93" s="34"/>
       <c r="U93" s="35"/>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:21">
       <c r="A94" s="34"/>
       <c r="B94" s="34"/>
       <c r="C94" s="34"/>
@@ -3902,7 +3996,7 @@
       <c r="T94" s="34"/>
       <c r="U94" s="35"/>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:21">
       <c r="A95" s="34"/>
       <c r="B95" s="34"/>
       <c r="C95" s="34"/>
@@ -3925,7 +4019,7 @@
       <c r="T95" s="34"/>
       <c r="U95" s="35"/>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:21">
       <c r="A96" s="34"/>
       <c r="B96" s="34"/>
       <c r="C96" s="34"/>
@@ -3948,7 +4042,7 @@
       <c r="T96" s="34"/>
       <c r="U96" s="35"/>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:21">
       <c r="A97" s="34"/>
       <c r="B97" s="34"/>
       <c r="C97" s="34"/>
@@ -3971,7 +4065,7 @@
       <c r="T97" s="34"/>
       <c r="U97" s="35"/>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:21">
       <c r="A98" s="34"/>
       <c r="B98" s="34"/>
       <c r="C98" s="34"/>
@@ -3994,7 +4088,7 @@
       <c r="T98" s="34"/>
       <c r="U98" s="35"/>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:21">
       <c r="A99" s="34"/>
       <c r="B99" s="34"/>
       <c r="C99" s="34"/>
@@ -4017,7 +4111,7 @@
       <c r="T99" s="34"/>
       <c r="U99" s="35"/>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:21">
       <c r="A100" s="34"/>
       <c r="B100" s="34"/>
       <c r="C100" s="34"/>
@@ -4040,7 +4134,7 @@
       <c r="T100" s="34"/>
       <c r="U100" s="35"/>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:21">
       <c r="A101" s="34"/>
       <c r="B101" s="34"/>
       <c r="C101" s="34"/>
@@ -4063,7 +4157,7 @@
       <c r="T101" s="34"/>
       <c r="U101" s="35"/>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:21">
       <c r="A102" s="34"/>
       <c r="B102" s="34"/>
       <c r="C102" s="34"/>
@@ -4086,7 +4180,7 @@
       <c r="T102" s="34"/>
       <c r="U102" s="35"/>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:21">
       <c r="A103" s="34"/>
       <c r="B103" s="34"/>
       <c r="C103" s="34"/>
@@ -4109,7 +4203,7 @@
       <c r="T103" s="34"/>
       <c r="U103" s="35"/>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:21">
       <c r="A104" s="34"/>
       <c r="B104" s="34"/>
       <c r="C104" s="34"/>
@@ -4132,7 +4226,7 @@
       <c r="T104" s="34"/>
       <c r="U104" s="35"/>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:21">
       <c r="A105" s="34"/>
       <c r="B105" s="34"/>
       <c r="C105" s="34"/>
@@ -4155,7 +4249,7 @@
       <c r="T105" s="34"/>
       <c r="U105" s="35"/>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:21">
       <c r="A106" s="34"/>
       <c r="B106" s="34"/>
       <c r="C106" s="34"/>
@@ -4178,7 +4272,7 @@
       <c r="T106" s="34"/>
       <c r="U106" s="35"/>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:21">
       <c r="A107" s="34"/>
       <c r="B107" s="34"/>
       <c r="C107" s="34"/>
@@ -4201,7 +4295,7 @@
       <c r="T107" s="34"/>
       <c r="U107" s="35"/>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:21">
       <c r="A108" s="34"/>
       <c r="B108" s="34"/>
       <c r="C108" s="34"/>
@@ -4224,7 +4318,7 @@
       <c r="T108" s="34"/>
       <c r="U108" s="35"/>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:21">
       <c r="A109" s="34"/>
       <c r="B109" s="34"/>
       <c r="C109" s="34"/>
@@ -4247,7 +4341,7 @@
       <c r="T109" s="34"/>
       <c r="U109" s="35"/>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:21">
       <c r="A110" s="34"/>
       <c r="B110" s="34"/>
       <c r="C110" s="34"/>
@@ -4270,7 +4364,7 @@
       <c r="T110" s="34"/>
       <c r="U110" s="35"/>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:21">
       <c r="A111" s="34"/>
       <c r="B111" s="34"/>
       <c r="C111" s="34"/>
@@ -4293,7 +4387,7 @@
       <c r="T111" s="34"/>
       <c r="U111" s="35"/>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:21">
       <c r="A112" s="34"/>
       <c r="B112" s="34"/>
       <c r="C112" s="34"/>
@@ -4316,7 +4410,7 @@
       <c r="T112" s="34"/>
       <c r="U112" s="35"/>
     </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:21">
       <c r="A113" s="34"/>
       <c r="B113" s="34"/>
       <c r="C113" s="34"/>
@@ -4339,7 +4433,7 @@
       <c r="T113" s="34"/>
       <c r="U113" s="35"/>
     </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:21">
       <c r="A114" s="34"/>
       <c r="B114" s="34"/>
       <c r="C114" s="34"/>
@@ -4362,7 +4456,7 @@
       <c r="T114" s="34"/>
       <c r="U114" s="35"/>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:21">
       <c r="A115" s="34"/>
       <c r="B115" s="34"/>
       <c r="C115" s="34"/>
@@ -4385,7 +4479,7 @@
       <c r="T115" s="34"/>
       <c r="U115" s="35"/>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:21">
       <c r="A116" s="34"/>
       <c r="B116" s="34"/>
       <c r="C116" s="34"/>
@@ -4408,7 +4502,7 @@
       <c r="T116" s="34"/>
       <c r="U116" s="35"/>
     </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:21">
       <c r="A117" s="34"/>
       <c r="B117" s="34"/>
       <c r="C117" s="34"/>
@@ -4431,7 +4525,7 @@
       <c r="T117" s="34"/>
       <c r="U117" s="35"/>
     </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:21">
       <c r="A118" s="34"/>
       <c r="B118" s="34"/>
       <c r="C118" s="34"/>
@@ -4454,7 +4548,7 @@
       <c r="T118" s="34"/>
       <c r="U118" s="35"/>
     </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:21">
       <c r="A119" s="34"/>
       <c r="B119" s="34"/>
       <c r="C119" s="34"/>
@@ -4477,7 +4571,7 @@
       <c r="T119" s="34"/>
       <c r="U119" s="35"/>
     </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:21">
       <c r="A120" s="34"/>
       <c r="B120" s="34"/>
       <c r="C120" s="34"/>
@@ -4500,7 +4594,7 @@
       <c r="T120" s="34"/>
       <c r="U120" s="35"/>
     </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:21">
       <c r="A121" s="34"/>
       <c r="B121" s="34"/>
       <c r="C121" s="34"/>
@@ -4523,7 +4617,7 @@
       <c r="T121" s="34"/>
       <c r="U121" s="35"/>
     </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:21">
       <c r="A122" s="34"/>
       <c r="B122" s="34"/>
       <c r="C122" s="34"/>
@@ -4546,7 +4640,7 @@
       <c r="T122" s="34"/>
       <c r="U122" s="35"/>
     </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:21">
       <c r="A123" s="34"/>
       <c r="B123" s="34"/>
       <c r="C123" s="34"/>
@@ -4569,7 +4663,7 @@
       <c r="T123" s="34"/>
       <c r="U123" s="35"/>
     </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:21">
       <c r="A124" s="34"/>
       <c r="B124" s="34"/>
       <c r="C124" s="34"/>
@@ -4592,7 +4686,7 @@
       <c r="T124" s="34"/>
       <c r="U124" s="35"/>
     </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:21">
       <c r="A125" s="34"/>
       <c r="B125" s="34"/>
       <c r="C125" s="34"/>
@@ -4615,7 +4709,7 @@
       <c r="T125" s="34"/>
       <c r="U125" s="35"/>
     </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:21">
       <c r="A126" s="34"/>
       <c r="B126" s="34"/>
       <c r="C126" s="34"/>
@@ -4638,7 +4732,7 @@
       <c r="T126" s="34"/>
       <c r="U126" s="35"/>
     </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:21">
       <c r="A127" s="34"/>
       <c r="B127" s="34"/>
       <c r="C127" s="34"/>
@@ -4661,7 +4755,7 @@
       <c r="T127" s="34"/>
       <c r="U127" s="35"/>
     </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:21">
       <c r="A128" s="34"/>
       <c r="B128" s="34"/>
       <c r="C128" s="34"/>
@@ -4684,7 +4778,7 @@
       <c r="T128" s="34"/>
       <c r="U128" s="35"/>
     </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:21">
       <c r="A129" s="34"/>
       <c r="B129" s="34"/>
       <c r="C129" s="34"/>
@@ -4707,7 +4801,7 @@
       <c r="T129" s="34"/>
       <c r="U129" s="35"/>
     </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:21">
       <c r="A130" s="34"/>
       <c r="B130" s="34"/>
       <c r="C130" s="34"/>
@@ -4730,7 +4824,7 @@
       <c r="T130" s="34"/>
       <c r="U130" s="35"/>
     </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:21">
       <c r="A131" s="34"/>
       <c r="B131" s="34"/>
       <c r="C131" s="34"/>
@@ -4753,7 +4847,7 @@
       <c r="T131" s="34"/>
       <c r="U131" s="35"/>
     </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:21">
       <c r="A132" s="34"/>
       <c r="B132" s="34"/>
       <c r="C132" s="34"/>
@@ -4776,7 +4870,7 @@
       <c r="T132" s="34"/>
       <c r="U132" s="35"/>
     </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:21">
       <c r="A133" s="34"/>
       <c r="B133" s="34"/>
       <c r="C133" s="34"/>
@@ -4799,7 +4893,7 @@
       <c r="T133" s="34"/>
       <c r="U133" s="35"/>
     </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:21">
       <c r="A134" s="34"/>
       <c r="B134" s="34"/>
       <c r="C134" s="34"/>
@@ -4822,7 +4916,7 @@
       <c r="T134" s="34"/>
       <c r="U134" s="35"/>
     </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:21">
       <c r="A135" s="34"/>
       <c r="B135" s="34"/>
       <c r="C135" s="34"/>
@@ -4845,7 +4939,7 @@
       <c r="T135" s="34"/>
       <c r="U135" s="35"/>
     </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:21">
       <c r="A136" s="34"/>
       <c r="B136" s="34"/>
       <c r="C136" s="34"/>
@@ -4865,7 +4959,7 @@
       <c r="Q136" s="35"/>
       <c r="U136" s="35"/>
     </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:21">
       <c r="A137" s="34"/>
       <c r="B137" s="34"/>
       <c r="C137" s="34"/>
@@ -4885,7 +4979,7 @@
       <c r="Q137" s="35"/>
       <c r="U137" s="35"/>
     </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:21">
       <c r="A138" s="34"/>
       <c r="B138" s="34"/>
       <c r="C138" s="34"/>
@@ -4905,7 +4999,7 @@
       <c r="Q138" s="35"/>
       <c r="U138" s="35"/>
     </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:21">
       <c r="A139" s="34"/>
       <c r="B139" s="34"/>
       <c r="C139" s="34"/>
@@ -4925,7 +5019,7 @@
       <c r="Q139" s="35"/>
       <c r="U139" s="35"/>
     </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:21">
       <c r="A140" s="34"/>
       <c r="B140" s="34"/>
       <c r="C140" s="34"/>
@@ -4945,7 +5039,7 @@
       <c r="Q140" s="35"/>
       <c r="U140" s="35"/>
     </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:21">
       <c r="A141" s="34"/>
       <c r="B141" s="34"/>
       <c r="C141" s="34"/>
@@ -4965,7 +5059,7 @@
       <c r="Q141" s="35"/>
       <c r="U141" s="35"/>
     </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:21">
       <c r="A142" s="34"/>
       <c r="B142" s="34"/>
       <c r="C142" s="34"/>
@@ -4985,7 +5079,7 @@
       <c r="Q142" s="35"/>
       <c r="U142" s="35"/>
     </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:21">
       <c r="A143" s="34"/>
       <c r="B143" s="34"/>
       <c r="C143" s="34"/>
@@ -5005,7 +5099,7 @@
       <c r="Q143" s="35"/>
       <c r="U143" s="35"/>
     </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:21">
       <c r="A144" s="34"/>
       <c r="B144" s="34"/>
       <c r="C144" s="34"/>
@@ -5025,7 +5119,7 @@
       <c r="Q144" s="35"/>
       <c r="U144" s="35"/>
     </row>
-    <row r="145" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:21">
       <c r="A145" s="34"/>
       <c r="B145" s="34"/>
       <c r="C145" s="34"/>
@@ -5045,7 +5139,7 @@
       <c r="Q145" s="35"/>
       <c r="U145" s="35"/>
     </row>
-    <row r="146" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:21">
       <c r="A146" s="34"/>
       <c r="B146" s="34"/>
       <c r="C146" s="34"/>
@@ -5065,7 +5159,7 @@
       <c r="Q146" s="35"/>
       <c r="U146" s="35"/>
     </row>
-    <row r="147" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:21">
       <c r="A147" s="34"/>
       <c r="B147" s="34"/>
       <c r="C147" s="34"/>
@@ -5085,7 +5179,7 @@
       <c r="Q147" s="35"/>
       <c r="U147" s="35"/>
     </row>
-    <row r="148" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:21">
       <c r="A148" s="34"/>
       <c r="B148" s="34"/>
       <c r="C148" s="34"/>
@@ -5105,7 +5199,7 @@
       <c r="Q148" s="35"/>
       <c r="U148" s="35"/>
     </row>
-    <row r="149" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:21">
       <c r="A149" s="34"/>
       <c r="B149" s="34"/>
       <c r="C149" s="34"/>
@@ -5125,7 +5219,7 @@
       <c r="Q149" s="35"/>
       <c r="U149" s="35"/>
     </row>
-    <row r="150" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:21">
       <c r="A150" s="34"/>
       <c r="B150" s="34"/>
       <c r="C150" s="34"/>
@@ -5145,7 +5239,7 @@
       <c r="Q150" s="35"/>
       <c r="U150" s="35"/>
     </row>
-    <row r="151" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:21">
       <c r="A151" s="34"/>
       <c r="B151" s="34"/>
       <c r="C151" s="34"/>
@@ -5165,7 +5259,7 @@
       <c r="Q151" s="35"/>
       <c r="U151" s="35"/>
     </row>
-    <row r="152" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:21">
       <c r="A152" s="34"/>
       <c r="B152" s="34"/>
       <c r="C152" s="34"/>
@@ -5185,7 +5279,7 @@
       <c r="Q152" s="35"/>
       <c r="U152" s="35"/>
     </row>
-    <row r="153" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:21">
       <c r="A153" s="34"/>
       <c r="B153" s="34"/>
       <c r="C153" s="34"/>
@@ -5205,7 +5299,7 @@
       <c r="Q153" s="35"/>
       <c r="U153" s="35"/>
     </row>
-    <row r="154" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:21">
       <c r="A154" s="34"/>
       <c r="B154" s="34"/>
       <c r="C154" s="34"/>
@@ -5225,7 +5319,7 @@
       <c r="Q154" s="35"/>
       <c r="U154" s="35"/>
     </row>
-    <row r="155" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:21">
       <c r="A155" s="34"/>
       <c r="B155" s="34"/>
       <c r="C155" s="34"/>
@@ -5245,7 +5339,7 @@
       <c r="Q155" s="35"/>
       <c r="U155" s="35"/>
     </row>
-    <row r="156" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:21">
       <c r="A156" s="34"/>
       <c r="B156" s="34"/>
       <c r="C156" s="34"/>
@@ -5265,7 +5359,7 @@
       <c r="Q156" s="35"/>
       <c r="U156" s="35"/>
     </row>
-    <row r="157" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:21">
       <c r="A157" s="34"/>
       <c r="B157" s="34"/>
       <c r="C157" s="34"/>
@@ -5285,7 +5379,7 @@
       <c r="Q157" s="35"/>
       <c r="U157" s="35"/>
     </row>
-    <row r="158" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:21">
       <c r="A158" s="34"/>
       <c r="B158" s="34"/>
       <c r="C158" s="34"/>
@@ -5305,7 +5399,7 @@
       <c r="Q158" s="35"/>
       <c r="U158" s="35"/>
     </row>
-    <row r="159" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:21">
       <c r="A159" s="34"/>
       <c r="B159" s="34"/>
       <c r="C159" s="34"/>
@@ -5325,7 +5419,7 @@
       <c r="Q159" s="35"/>
       <c r="U159" s="35"/>
     </row>
-    <row r="160" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:21">
       <c r="A160" s="34"/>
       <c r="B160" s="34"/>
       <c r="C160" s="34"/>
@@ -5345,7 +5439,7 @@
       <c r="Q160" s="35"/>
       <c r="U160" s="35"/>
     </row>
-    <row r="161" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:21">
       <c r="A161" s="34"/>
       <c r="B161" s="34"/>
       <c r="C161" s="34"/>
@@ -5365,7 +5459,7 @@
       <c r="Q161" s="35"/>
       <c r="U161" s="35"/>
     </row>
-    <row r="162" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:21">
       <c r="A162" s="34"/>
       <c r="B162" s="34"/>
       <c r="C162" s="34"/>
@@ -5385,7 +5479,7 @@
       <c r="Q162" s="35"/>
       <c r="U162" s="35"/>
     </row>
-    <row r="163" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:21">
       <c r="A163" s="34"/>
       <c r="B163" s="34"/>
       <c r="C163" s="34"/>
@@ -5405,7 +5499,7 @@
       <c r="Q163" s="35"/>
       <c r="U163" s="35"/>
     </row>
-    <row r="164" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:21">
       <c r="A164" s="34"/>
       <c r="B164" s="34"/>
       <c r="C164" s="34"/>
@@ -5425,7 +5519,7 @@
       <c r="Q164" s="35"/>
       <c r="U164" s="35"/>
     </row>
-    <row r="165" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:21">
       <c r="A165" s="34"/>
       <c r="B165" s="34"/>
       <c r="C165" s="34"/>
@@ -5445,7 +5539,7 @@
       <c r="Q165" s="35"/>
       <c r="U165" s="35"/>
     </row>
-    <row r="166" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:21">
       <c r="A166" s="34"/>
       <c r="B166" s="34"/>
       <c r="C166" s="34"/>
@@ -5465,7 +5559,7 @@
       <c r="Q166" s="35"/>
       <c r="U166" s="35"/>
     </row>
-    <row r="167" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:21">
       <c r="A167" s="34"/>
       <c r="B167" s="34"/>
       <c r="C167" s="34"/>
@@ -5485,7 +5579,7 @@
       <c r="Q167" s="35"/>
       <c r="U167" s="35"/>
     </row>
-    <row r="168" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:21">
       <c r="A168" s="34"/>
       <c r="B168" s="34"/>
       <c r="C168" s="34"/>
@@ -5505,7 +5599,7 @@
       <c r="Q168" s="35"/>
       <c r="U168" s="35"/>
     </row>
-    <row r="169" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:21">
       <c r="A169" s="34"/>
       <c r="B169" s="34"/>
       <c r="C169" s="34"/>
@@ -5525,7 +5619,7 @@
       <c r="Q169" s="35"/>
       <c r="U169" s="35"/>
     </row>
-    <row r="170" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:21">
       <c r="A170" s="34"/>
       <c r="B170" s="34"/>
       <c r="C170" s="34"/>
@@ -5554,14 +5648,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="43.125" customWidth="1"/>
@@ -5572,7 +5666,7 @@
     <col min="8" max="8" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" s="17" t="s">
         <v>64</v>
       </c>
@@ -5598,7 +5692,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" s="3" customFormat="1">
       <c r="A2" s="18"/>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -5608,7 +5702,7 @@
       <c r="G2" s="18"/>
       <c r="H2" s="18"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
       <c r="A3" s="21"/>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
@@ -5618,7 +5712,7 @@
       <c r="G3" s="21"/>
       <c r="H3" s="21"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8">
       <c r="A4" s="21"/>
       <c r="B4" s="21"/>
       <c r="C4" s="21"/>
@@ -5628,7 +5722,7 @@
       <c r="G4" s="21"/>
       <c r="H4" s="21"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8">
       <c r="A5" s="21"/>
       <c r="B5" s="21"/>
       <c r="C5" s="21"/>
@@ -5638,7 +5732,7 @@
       <c r="G5" s="21"/>
       <c r="H5" s="21"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8">
       <c r="A6" s="21"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
@@ -5648,7 +5742,7 @@
       <c r="G6" s="21"/>
       <c r="H6" s="21"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8">
       <c r="A7" s="21"/>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
@@ -5658,7 +5752,7 @@
       <c r="G7" s="21"/>
       <c r="H7" s="21"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8">
       <c r="A8" s="21"/>
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
@@ -5668,7 +5762,7 @@
       <c r="G8" s="21"/>
       <c r="H8" s="21"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8">
       <c r="A9" s="21"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
@@ -5678,7 +5772,7 @@
       <c r="G9" s="21"/>
       <c r="H9" s="21"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8">
       <c r="A10" s="21"/>
       <c r="B10" s="21"/>
       <c r="C10" s="21"/>
@@ -5688,7 +5782,7 @@
       <c r="G10" s="21"/>
       <c r="H10" s="21"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8">
       <c r="A11" s="21"/>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
@@ -5698,7 +5792,7 @@
       <c r="G11" s="21"/>
       <c r="H11" s="21"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8">
       <c r="A12" s="21"/>
       <c r="B12" s="21"/>
       <c r="C12" s="21"/>
@@ -5708,7 +5802,7 @@
       <c r="G12" s="21"/>
       <c r="H12" s="21"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8">
       <c r="A13" s="21"/>
       <c r="B13" s="21"/>
       <c r="C13" s="21"/>
@@ -5718,7 +5812,7 @@
       <c r="G13" s="21"/>
       <c r="H13" s="21"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8">
       <c r="A14" s="21"/>
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
@@ -5728,7 +5822,7 @@
       <c r="G14" s="21"/>
       <c r="H14" s="21"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8">
       <c r="A15" s="21"/>
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
@@ -5738,7 +5832,7 @@
       <c r="G15" s="21"/>
       <c r="H15" s="21"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8">
       <c r="A16" s="21"/>
       <c r="B16" s="21"/>
       <c r="C16" s="21"/>
@@ -5748,7 +5842,7 @@
       <c r="G16" s="21"/>
       <c r="H16" s="21"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8">
       <c r="A17" s="21"/>
       <c r="B17" s="21"/>
       <c r="C17" s="21"/>
@@ -5758,7 +5852,7 @@
       <c r="G17" s="21"/>
       <c r="H17" s="21"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8">
       <c r="A18" s="21"/>
       <c r="B18" s="21"/>
       <c r="C18" s="21"/>
@@ -5768,7 +5862,7 @@
       <c r="G18" s="21"/>
       <c r="H18" s="21"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8">
       <c r="A19" s="21"/>
       <c r="B19" s="21"/>
       <c r="C19" s="21"/>
@@ -5790,14 +5884,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="L4" sqref="L4:M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
     <col min="2" max="2" width="10.125" style="2" customWidth="1"/>
@@ -6633,39 +6727,39 @@
     <col min="16141" max="16141" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="48" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="49"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="50"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="51"/>
-    </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="51"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="52"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="53"/>
+    </row>
+    <row r="3" spans="1:13" s="1" customFormat="1" ht="16.5">
       <c r="A3" s="5" t="s">
         <v>73</v>
       </c>
@@ -6706,7 +6800,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" s="1" customFormat="1" ht="16.5">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -6721,7 +6815,7 @@
       <c r="L4" s="8"/>
       <c r="M4" s="16"/>
     </row>
-    <row r="5" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" s="1" customFormat="1" ht="16.5">
       <c r="A5" s="8"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -6736,7 +6830,7 @@
       <c r="L5" s="11"/>
       <c r="M5" s="12"/>
     </row>
-    <row r="6" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" s="1" customFormat="1" ht="16.5">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -6751,7 +6845,7 @@
       <c r="L6" s="8"/>
       <c r="M6" s="16"/>
     </row>
-    <row r="7" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" s="1" customFormat="1" ht="16.5">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -6766,7 +6860,7 @@
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
     </row>
-    <row r="8" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" s="1" customFormat="1" ht="16.5">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -6781,7 +6875,7 @@
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
     </row>
-    <row r="9" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" s="1" customFormat="1" ht="16.5">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -6796,7 +6890,7 @@
       <c r="L9" s="8"/>
       <c r="M9" s="8"/>
     </row>
-    <row r="10" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" s="1" customFormat="1" ht="16.5">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -6811,7 +6905,7 @@
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
     </row>
-    <row r="11" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" s="1" customFormat="1" ht="16.5">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -6826,7 +6920,7 @@
       <c r="L11" s="8"/>
       <c r="M11" s="8"/>
     </row>
-    <row r="12" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" s="1" customFormat="1" ht="16.5">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -6841,7 +6935,7 @@
       <c r="L12" s="8"/>
       <c r="M12" s="8"/>
     </row>
-    <row r="13" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" s="1" customFormat="1" ht="16.5">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>

--- a/VersionRecords/Version 5.1.0/版本Bug和特性计划及评审表v5.1.0_马丁组.xlsx
+++ b/VersionRecords/Version 5.1.0/版本Bug和特性计划及评审表v5.1.0_马丁组.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="93">
   <si>
     <t>No</t>
   </si>
@@ -91,12 +91,6 @@
     <t>不紧急</t>
   </si>
   <si>
-    <t>房态图续租功能（可以重复续租）</t>
-  </si>
-  <si>
-    <t>BugFixs</t>
-  </si>
-  <si>
     <t>房东PC</t>
   </si>
   <si>
@@ -112,15 +106,9 @@
     <t>施超</t>
   </si>
   <si>
-    <t>房态图租客发起退房续租验证</t>
-  </si>
-  <si>
     <t>New Features</t>
   </si>
   <si>
-    <t>房态图菜单红点修改</t>
-  </si>
-  <si>
     <t>韩淑芳</t>
   </si>
   <si>
@@ -139,19 +127,10 @@
     <t>房态图文案修改“套”改为“间”</t>
   </si>
   <si>
-    <t>菜单被浏览器遮挡问题</t>
-  </si>
-  <si>
-    <t>添加小区关联地铁信息</t>
-  </si>
-  <si>
     <t>张飞</t>
   </si>
   <si>
     <t>李萌</t>
-  </si>
-  <si>
-    <t>大楼录入更新小区信息</t>
   </si>
   <si>
     <t>房东PC，房东App</t>
@@ -311,6 +290,30 @@
   </si>
   <si>
     <t>不通过</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>房态图续租功能（可以重复续租）</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>房态图菜单红点修改</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单被浏览器遮挡问题</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加小区关联地铁信息</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>房态图租客发起退房续租验证</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>大楼录入更新小区信息</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -753,6 +756,12 @@
     <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -764,12 +773,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1152,8 +1155,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1258,38 +1261,38 @@
         <v>22</v>
       </c>
       <c r="D2" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="G2" s="31" t="s">
         <v>24</v>
-      </c>
-      <c r="F2" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="31" t="s">
-        <v>26</v>
       </c>
       <c r="H2" s="32">
         <v>42678</v>
       </c>
       <c r="I2" s="31" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J2" s="32">
         <v>42678</v>
       </c>
       <c r="K2" s="31"/>
       <c r="L2" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="N2" s="31" t="s">
-        <v>29</v>
-      </c>
       <c r="O2" s="37" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="P2" s="32"/>
       <c r="Q2" s="37"/>
@@ -1310,38 +1313,38 @@
         <v>22</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>30</v>
+        <v>91</v>
       </c>
       <c r="E3" s="31" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F3" s="31" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G3" s="31" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H3" s="32">
         <v>42678</v>
       </c>
       <c r="I3" s="31" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J3" s="32">
         <v>42678</v>
       </c>
       <c r="K3" s="31"/>
       <c r="L3" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="M3" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="N3" s="31" t="s">
-        <v>29</v>
-      </c>
       <c r="O3" s="37" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="P3" s="32"/>
       <c r="Q3" s="37"/>
@@ -1362,44 +1365,44 @@
         <v>22</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>32</v>
+        <v>88</v>
       </c>
       <c r="E4" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="31" t="s">
         <v>24</v>
-      </c>
-      <c r="F4" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="31" t="s">
-        <v>26</v>
       </c>
       <c r="H4" s="32">
         <v>42676</v>
       </c>
       <c r="I4" s="31" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J4" s="32">
         <v>42676</v>
       </c>
       <c r="K4" s="31"/>
       <c r="L4" s="37" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M4" s="31" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N4" s="31" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="O4" s="37" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="P4" s="32">
         <v>42680</v>
       </c>
       <c r="Q4" s="37" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="R4" s="34"/>
       <c r="S4" s="34"/>
@@ -1418,44 +1421,44 @@
         <v>22</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E5" s="31" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F5" s="31" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G5" s="31" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H5" s="32">
         <v>42676</v>
       </c>
       <c r="I5" s="31" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J5" s="32">
         <v>42676</v>
       </c>
       <c r="K5" s="31"/>
       <c r="L5" s="37" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M5" s="31" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N5" s="31" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="O5" s="37" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="P5" s="32">
         <v>42680</v>
       </c>
       <c r="Q5" s="37" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="R5" s="34"/>
       <c r="S5" s="34"/>
@@ -1474,44 +1477,44 @@
         <v>22</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E6" s="31" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F6" s="31" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G6" s="31" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H6" s="32">
         <v>42676</v>
       </c>
       <c r="I6" s="31" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J6" s="32">
         <v>42676</v>
       </c>
       <c r="K6" s="31"/>
       <c r="L6" s="37" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M6" s="31" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N6" s="31" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="O6" s="37" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="P6" s="32">
         <v>42680</v>
       </c>
       <c r="Q6" s="37" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="R6" s="34"/>
       <c r="S6" s="34"/>
@@ -1530,44 +1533,44 @@
         <v>22</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="E7" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="31" t="s">
         <v>24</v>
-      </c>
-      <c r="F7" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="31" t="s">
-        <v>26</v>
       </c>
       <c r="H7" s="32">
         <v>42676</v>
       </c>
       <c r="I7" s="31" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J7" s="32">
         <v>42676</v>
       </c>
       <c r="K7" s="31"/>
       <c r="L7" s="37" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M7" s="31" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N7" s="31" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="O7" s="37" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="P7" s="32">
         <v>42680</v>
       </c>
       <c r="Q7" s="37" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="R7" s="34"/>
       <c r="S7" s="34"/>
@@ -1586,44 +1589,44 @@
         <v>22</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="E8" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="31" t="s">
         <v>24</v>
-      </c>
-      <c r="F8" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="31" t="s">
-        <v>26</v>
       </c>
       <c r="H8" s="32">
         <v>42677</v>
       </c>
       <c r="I8" s="31" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J8" s="32">
         <v>42677</v>
       </c>
       <c r="K8" s="31"/>
       <c r="L8" s="37" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="M8" s="31" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N8" s="31" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="O8" s="37" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="P8" s="32">
         <v>42680</v>
       </c>
       <c r="Q8" s="37" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="R8" s="34"/>
       <c r="S8" s="34"/>
@@ -1642,44 +1645,44 @@
         <v>22</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>43</v>
+        <v>92</v>
       </c>
       <c r="E9" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="31" t="s">
         <v>24</v>
-      </c>
-      <c r="F9" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="G9" s="31" t="s">
-        <v>26</v>
       </c>
       <c r="H9" s="32">
         <v>42676</v>
       </c>
       <c r="I9" s="31" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J9" s="32">
         <v>42676</v>
       </c>
       <c r="K9" s="31"/>
       <c r="L9" s="37" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="M9" s="31" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N9" s="31" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="O9" s="37" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="P9" s="32">
         <v>42680</v>
       </c>
       <c r="Q9" s="37" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="R9" s="46"/>
       <c r="S9" s="46"/>
@@ -1698,46 +1701,46 @@
         <v>22</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E10" s="31" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F10" s="31" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G10" s="31" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H10" s="32">
         <v>42681</v>
       </c>
       <c r="I10" s="31" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J10" s="32">
         <v>42681</v>
       </c>
       <c r="K10" s="31"/>
       <c r="L10" s="37" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="M10" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="N10" s="54" t="s">
-        <v>47</v>
+        <v>26</v>
+      </c>
+      <c r="N10" s="50" t="s">
+        <v>40</v>
       </c>
       <c r="O10" s="37" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="P10" s="37"/>
       <c r="Q10" s="37"/>
-      <c r="R10" s="55"/>
+      <c r="R10" s="51"/>
       <c r="S10" s="34"/>
       <c r="T10" s="42"/>
       <c r="U10" s="45" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="V10" s="44"/>
     </row>
@@ -1749,47 +1752,47 @@
         <v>21</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E11" s="31" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F11" s="31" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G11" s="31" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H11" s="32">
         <v>42678</v>
       </c>
       <c r="I11" s="31" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J11" s="32">
         <v>42681</v>
       </c>
       <c r="K11" s="31"/>
       <c r="L11" s="37" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="M11" s="31" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N11" s="31" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="O11" s="37" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="P11" s="32">
         <v>42681</v>
       </c>
       <c r="Q11" s="37" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="R11" s="34"/>
       <c r="S11" s="34"/>
@@ -1808,44 +1811,44 @@
         <v>22</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E12" s="31" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F12" s="31" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G12" s="31" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H12" s="32">
         <v>42676</v>
       </c>
       <c r="I12" s="31" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J12" s="32">
         <v>42676</v>
       </c>
       <c r="K12" s="31"/>
       <c r="L12" s="37" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="M12" s="31" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N12" s="49" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="O12" s="48" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="P12" s="32">
         <v>42681</v>
       </c>
       <c r="Q12" s="37" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="R12" s="34"/>
       <c r="S12" s="34"/>
@@ -1864,44 +1867,44 @@
         <v>22</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="E13" s="31" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F13" s="31" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="G13" s="31" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H13" s="32">
         <v>42676</v>
       </c>
       <c r="I13" s="31" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J13" s="32">
         <v>42676</v>
       </c>
       <c r="K13" s="31"/>
       <c r="L13" s="37" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="M13" s="31" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N13" s="31" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="O13" s="37" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="P13" s="32">
         <v>42681</v>
       </c>
       <c r="Q13" s="37" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="R13" s="34"/>
       <c r="S13" s="34"/>
@@ -1920,44 +1923,44 @@
         <v>22</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E14" s="31" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F14" s="31" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G14" s="31" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H14" s="32">
         <v>42676</v>
       </c>
       <c r="I14" s="31" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J14" s="32">
         <v>42676</v>
       </c>
       <c r="K14" s="31"/>
       <c r="L14" s="37" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="M14" s="31" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N14" s="31" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="O14" s="37" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="P14" s="32">
         <v>42681</v>
       </c>
       <c r="Q14" s="37" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="R14" s="34"/>
       <c r="S14" s="34"/>
@@ -1976,44 +1979,44 @@
         <v>22</v>
       </c>
       <c r="D15" s="30" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="E15" s="31" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F15" s="31" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G15" s="31" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H15" s="32">
         <v>42678</v>
       </c>
       <c r="I15" s="32" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J15" s="32">
         <v>42681</v>
       </c>
       <c r="K15" s="31"/>
       <c r="L15" s="37" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="M15" s="31" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N15" s="31" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="O15" s="48" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="P15" s="32">
         <v>42681</v>
       </c>
       <c r="Q15" s="48" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="R15" s="34"/>
       <c r="S15" s="34"/>
@@ -2029,47 +2032,47 @@
         <v>21</v>
       </c>
       <c r="C16" s="29" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E16" s="31" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F16" s="31" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G16" s="31" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H16" s="32">
         <v>42681</v>
       </c>
       <c r="I16" s="32" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J16" s="32">
         <v>42681</v>
       </c>
       <c r="K16" s="31"/>
       <c r="L16" s="37" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M16" s="31" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N16" s="31" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="O16" s="48" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="P16" s="32">
         <v>42681</v>
       </c>
       <c r="Q16" s="48" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="R16" s="34"/>
       <c r="S16" s="34"/>
@@ -2085,47 +2088,47 @@
         <v>21</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D17" s="30" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E17" s="31" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F17" s="31" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G17" s="31" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H17" s="32">
         <v>42681</v>
       </c>
       <c r="I17" s="32" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J17" s="32">
         <v>42681</v>
       </c>
       <c r="K17" s="38"/>
       <c r="L17" s="37" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M17" s="31" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N17" s="31" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="O17" s="39" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="P17" s="32">
         <v>42680</v>
       </c>
       <c r="Q17" s="39" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="R17" s="34"/>
       <c r="S17" s="34"/>
@@ -2141,47 +2144,47 @@
         <v>21</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D18" s="30" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="E18" s="31" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F18" s="31" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G18" s="31" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H18" s="32">
         <v>42681</v>
       </c>
       <c r="I18" s="32" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J18" s="32">
         <v>42681</v>
       </c>
       <c r="K18" s="40"/>
       <c r="L18" s="37" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M18" s="31" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N18" s="31" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="O18" s="48" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="P18" s="32">
         <v>42681</v>
       </c>
       <c r="Q18" s="48" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="R18" s="34"/>
       <c r="S18" s="34"/>
@@ -2196,47 +2199,47 @@
         <v>21</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E19" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="G19" s="31" t="s">
         <v>24</v>
-      </c>
-      <c r="F19" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="G19" s="31" t="s">
-        <v>26</v>
       </c>
       <c r="H19" s="32">
         <v>42677</v>
       </c>
       <c r="I19" s="32" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J19" s="32">
         <v>42677</v>
       </c>
       <c r="K19" s="40"/>
       <c r="L19" s="37" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="M19" s="31" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N19" s="31" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="O19" s="34" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="P19" s="32">
         <v>42681</v>
       </c>
       <c r="Q19" s="48" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="R19" s="34"/>
       <c r="S19" s="34"/>
@@ -2251,41 +2254,41 @@
         <v>21</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D20" s="30" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="E20" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" s="31" t="s">
         <v>24</v>
-      </c>
-      <c r="F20" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="G20" s="31" t="s">
-        <v>26</v>
       </c>
       <c r="H20" s="32">
         <v>42681</v>
       </c>
       <c r="I20" s="32" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J20" s="32">
         <v>42681</v>
       </c>
       <c r="K20" s="40"/>
       <c r="L20" s="37" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="M20" s="31" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N20" s="31" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="O20" s="41" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="P20" s="36"/>
       <c r="Q20" s="35"/>
@@ -5668,28 +5671,28 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="H1" s="17" t="s">
         <v>64</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="H1" s="17" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1">
@@ -6728,73 +6731,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="50" t="s">
-        <v>72</v>
-      </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="51"/>
+      <c r="A1" s="52" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="53"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="52"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="53"/>
+      <c r="A2" s="54"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="55"/>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" ht="16.5">
       <c r="A3" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="H3" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="I3" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="J3" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="K3" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="L3" s="5" t="s">
         <v>77</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>84</v>
       </c>
       <c r="M3" s="15" t="s">
         <v>20</v>

--- a/VersionRecords/Version 5.1.0/版本Bug和特性计划及评审表v5.1.0_马丁组.xlsx
+++ b/VersionRecords/Version 5.1.0/版本Bug和特性计划及评审表v5.1.0_马丁组.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85">
   <si>
     <t>No</t>
   </si>
@@ -161,12 +161,6 @@
   </si>
   <si>
     <t>邵明基</t>
-  </si>
-  <si>
-    <t>不通过</t>
-  </si>
-  <si>
-    <t>脚本还没有审核，未测试</t>
   </si>
   <si>
     <t>紧急</t>
@@ -289,12 +283,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -305,12 +299,6 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -347,13 +335,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -361,24 +342,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -390,8 +356,67 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -407,14 +432,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -428,30 +454,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -459,11 +461,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="12"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -474,40 +475,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -536,55 +517,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -596,49 +535,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -656,7 +553,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -668,13 +619,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -686,43 +631,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="22"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -860,6 +841,63 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -871,24 +909,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -910,45 +930,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -962,195 +943,195 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="35" borderId="2">
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="55" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="55" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="55" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="55" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="55" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="55" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="55" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="55" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="55" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="55" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="55" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="55" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1174,19 +1155,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="55" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1204,7 +1185,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1219,22 +1200,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="6" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1246,10 +1227,10 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1261,19 +1242,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1708,7 +1686,7 @@
   <dimension ref="A1:V170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1854,9 +1832,9 @@
       </c>
       <c r="R2" s="38"/>
       <c r="S2" s="38"/>
-      <c r="T2" s="47"/>
-      <c r="U2" s="48"/>
-      <c r="V2" s="49"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="47"/>
+      <c r="V2" s="48"/>
     </row>
     <row r="3" s="28" customFormat="1" ht="16.5" spans="1:22">
       <c r="A3" s="33">
@@ -1910,9 +1888,9 @@
       </c>
       <c r="R3" s="38"/>
       <c r="S3" s="38"/>
-      <c r="T3" s="47"/>
-      <c r="U3" s="50"/>
-      <c r="V3" s="49"/>
+      <c r="T3" s="46"/>
+      <c r="U3" s="49"/>
+      <c r="V3" s="48"/>
     </row>
     <row r="4" s="28" customFormat="1" ht="16.5" customHeight="1" spans="1:22">
       <c r="A4" s="33">
@@ -1966,9 +1944,9 @@
       </c>
       <c r="R4" s="38"/>
       <c r="S4" s="38"/>
-      <c r="T4" s="47"/>
-      <c r="U4" s="48"/>
-      <c r="V4" s="49"/>
+      <c r="T4" s="46"/>
+      <c r="U4" s="47"/>
+      <c r="V4" s="48"/>
     </row>
     <row r="5" s="28" customFormat="1" ht="16.5" spans="1:22">
       <c r="A5" s="33">
@@ -2022,9 +2000,9 @@
       </c>
       <c r="R5" s="38"/>
       <c r="S5" s="38"/>
-      <c r="T5" s="47"/>
-      <c r="U5" s="50"/>
-      <c r="V5" s="49"/>
+      <c r="T5" s="46"/>
+      <c r="U5" s="49"/>
+      <c r="V5" s="48"/>
     </row>
     <row r="6" s="28" customFormat="1" ht="16.5" spans="1:22">
       <c r="A6" s="33">
@@ -2078,9 +2056,9 @@
       </c>
       <c r="R6" s="38"/>
       <c r="S6" s="38"/>
-      <c r="T6" s="47"/>
-      <c r="U6" s="50"/>
-      <c r="V6" s="49"/>
+      <c r="T6" s="46"/>
+      <c r="U6" s="49"/>
+      <c r="V6" s="48"/>
     </row>
     <row r="7" s="28" customFormat="1" ht="16.5" spans="1:22">
       <c r="A7" s="33">
@@ -2134,9 +2112,9 @@
       </c>
       <c r="R7" s="38"/>
       <c r="S7" s="38"/>
-      <c r="T7" s="47"/>
-      <c r="U7" s="50"/>
-      <c r="V7" s="49"/>
+      <c r="T7" s="46"/>
+      <c r="U7" s="49"/>
+      <c r="V7" s="48"/>
     </row>
     <row r="8" s="28" customFormat="1" ht="16.5" spans="1:22">
       <c r="A8" s="33">
@@ -2190,9 +2168,9 @@
       </c>
       <c r="R8" s="38"/>
       <c r="S8" s="38"/>
-      <c r="T8" s="47"/>
-      <c r="U8" s="50"/>
-      <c r="V8" s="49"/>
+      <c r="T8" s="46"/>
+      <c r="U8" s="49"/>
+      <c r="V8" s="48"/>
     </row>
     <row r="9" s="28" customFormat="1" ht="16.5" spans="1:22">
       <c r="A9" s="33">
@@ -2244,11 +2222,11 @@
       <c r="Q9" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="R9" s="51"/>
-      <c r="S9" s="51"/>
-      <c r="T9" s="47"/>
-      <c r="U9" s="50"/>
-      <c r="V9" s="49"/>
+      <c r="R9" s="50"/>
+      <c r="S9" s="50"/>
+      <c r="T9" s="46"/>
+      <c r="U9" s="49"/>
+      <c r="V9" s="48"/>
     </row>
     <row r="10" s="28" customFormat="1" ht="16.5" spans="1:22">
       <c r="A10" s="33">
@@ -2292,17 +2270,19 @@
         <v>46</v>
       </c>
       <c r="O10" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="P10" s="41"/>
-      <c r="Q10" s="41"/>
-      <c r="R10" s="52"/>
+        <v>30</v>
+      </c>
+      <c r="P10" s="36">
+        <v>42682</v>
+      </c>
+      <c r="Q10" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="R10" s="51"/>
       <c r="S10" s="38"/>
-      <c r="T10" s="47"/>
-      <c r="U10" s="50" t="s">
-        <v>48</v>
-      </c>
-      <c r="V10" s="49"/>
+      <c r="T10" s="46"/>
+      <c r="U10" s="49"/>
+      <c r="V10" s="48"/>
     </row>
     <row r="11" s="28" customFormat="1" ht="16.5" spans="1:22">
       <c r="A11" s="33">
@@ -2312,10 +2292,10 @@
         <v>21</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D11" s="34" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E11" s="35" t="s">
         <v>24</v>
@@ -2356,9 +2336,9 @@
       </c>
       <c r="R11" s="38"/>
       <c r="S11" s="38"/>
-      <c r="T11" s="47"/>
-      <c r="U11" s="50"/>
-      <c r="V11" s="49"/>
+      <c r="T11" s="46"/>
+      <c r="U11" s="49"/>
+      <c r="V11" s="48"/>
     </row>
     <row r="12" s="28" customFormat="1" ht="16.5" spans="1:22">
       <c r="A12" s="33">
@@ -2371,7 +2351,7 @@
         <v>22</v>
       </c>
       <c r="D12" s="34" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E12" s="35" t="s">
         <v>24</v>
@@ -2393,13 +2373,13 @@
       </c>
       <c r="K12" s="35"/>
       <c r="L12" s="41" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M12" s="35" t="s">
         <v>28</v>
       </c>
       <c r="N12" s="35" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="O12" s="41" t="s">
         <v>30</v>
@@ -2412,9 +2392,9 @@
       </c>
       <c r="R12" s="38"/>
       <c r="S12" s="38"/>
-      <c r="T12" s="47"/>
-      <c r="U12" s="50"/>
-      <c r="V12" s="49"/>
+      <c r="T12" s="46"/>
+      <c r="U12" s="49"/>
+      <c r="V12" s="48"/>
     </row>
     <row r="13" s="28" customFormat="1" ht="16.5" spans="1:22">
       <c r="A13" s="33">
@@ -2427,13 +2407,13 @@
         <v>22</v>
       </c>
       <c r="D13" s="34" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E13" s="35" t="s">
         <v>24</v>
       </c>
       <c r="F13" s="35" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G13" s="35" t="s">
         <v>26</v>
@@ -2449,7 +2429,7 @@
       </c>
       <c r="K13" s="35"/>
       <c r="L13" s="41" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M13" s="35" t="s">
         <v>28</v>
@@ -2468,9 +2448,9 @@
       </c>
       <c r="R13" s="38"/>
       <c r="S13" s="38"/>
-      <c r="T13" s="47"/>
-      <c r="U13" s="50"/>
-      <c r="V13" s="49"/>
+      <c r="T13" s="46"/>
+      <c r="U13" s="49"/>
+      <c r="V13" s="48"/>
     </row>
     <row r="14" s="28" customFormat="1" ht="16.5" spans="1:22">
       <c r="A14" s="33">
@@ -2483,7 +2463,7 @@
         <v>22</v>
       </c>
       <c r="D14" s="34" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E14" s="35" t="s">
         <v>24</v>
@@ -2505,7 +2485,7 @@
       </c>
       <c r="K14" s="35"/>
       <c r="L14" s="41" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M14" s="35" t="s">
         <v>28</v>
@@ -2524,9 +2504,9 @@
       </c>
       <c r="R14" s="38"/>
       <c r="S14" s="38"/>
-      <c r="T14" s="47"/>
-      <c r="U14" s="50"/>
-      <c r="V14" s="49"/>
+      <c r="T14" s="46"/>
+      <c r="U14" s="49"/>
+      <c r="V14" s="48"/>
     </row>
     <row r="15" s="28" customFormat="1" ht="33" spans="1:22">
       <c r="A15" s="33">
@@ -2539,7 +2519,7 @@
         <v>22</v>
       </c>
       <c r="D15" s="34" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E15" s="35" t="s">
         <v>24</v>
@@ -2561,13 +2541,13 @@
       </c>
       <c r="K15" s="35"/>
       <c r="L15" s="41" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M15" s="35" t="s">
         <v>28</v>
       </c>
       <c r="N15" s="35" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="O15" s="41" t="s">
         <v>30</v>
@@ -2581,8 +2561,8 @@
       <c r="R15" s="38"/>
       <c r="S15" s="38"/>
       <c r="T15" s="38"/>
-      <c r="U15" s="50"/>
-      <c r="V15" s="49"/>
+      <c r="U15" s="49"/>
+      <c r="V15" s="48"/>
     </row>
     <row r="16" s="28" customFormat="1" ht="16.5" spans="1:22">
       <c r="A16" s="33">
@@ -2592,10 +2572,10 @@
         <v>21</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D16" s="34" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E16" s="35" t="s">
         <v>24</v>
@@ -2637,8 +2617,8 @@
       <c r="R16" s="38"/>
       <c r="S16" s="38"/>
       <c r="T16" s="38"/>
-      <c r="U16" s="50"/>
-      <c r="V16" s="49"/>
+      <c r="U16" s="49"/>
+      <c r="V16" s="48"/>
     </row>
     <row r="17" s="28" customFormat="1" ht="16.5" spans="1:22">
       <c r="A17" s="33">
@@ -2648,10 +2628,10 @@
         <v>21</v>
       </c>
       <c r="C17" s="33" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D17" s="34" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E17" s="35" t="s">
         <v>24</v>
@@ -2693,8 +2673,8 @@
       <c r="R17" s="38"/>
       <c r="S17" s="38"/>
       <c r="T17" s="38"/>
-      <c r="U17" s="53"/>
-      <c r="V17" s="49"/>
+      <c r="U17" s="52"/>
+      <c r="V17" s="48"/>
     </row>
     <row r="18" ht="16.5" spans="1:21">
       <c r="A18" s="33">
@@ -2704,10 +2684,10 @@
         <v>21</v>
       </c>
       <c r="C18" s="33" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D18" s="34" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E18" s="35" t="s">
         <v>24</v>
@@ -2759,16 +2739,16 @@
         <v>21</v>
       </c>
       <c r="C19" s="33" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D19" s="34" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E19" s="35" t="s">
         <v>24</v>
       </c>
       <c r="F19" s="35" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G19" s="35" t="s">
         <v>26</v>
@@ -2784,7 +2764,7 @@
       </c>
       <c r="K19" s="45"/>
       <c r="L19" s="41" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M19" s="35" t="s">
         <v>28</v>
@@ -2814,10 +2794,10 @@
         <v>21</v>
       </c>
       <c r="C20" s="33" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D20" s="34" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E20" s="35" t="s">
         <v>24</v>
@@ -2839,7 +2819,7 @@
       </c>
       <c r="K20" s="45"/>
       <c r="L20" s="41" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="M20" s="35" t="s">
         <v>28</v>
@@ -6236,28 +6216,28 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="D1" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="E1" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="F1" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="G1" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="H1" s="21" t="s">
         <v>71</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="2" s="3" customFormat="1" spans="1:8">
@@ -7298,7 +7278,7 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -7330,40 +7310,40 @@
     </row>
     <row r="3" s="1" customFormat="1" ht="16.5" spans="1:13">
       <c r="A3" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="D3" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="E3" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="F3" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="G3" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="H3" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="I3" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="J3" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="K3" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="L3" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="M3" s="19" t="s">
         <v>20</v>
@@ -7524,15 +7504,15 @@
     <mergeCell ref="A1:M2"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I3 I5:I1048576 JE$1:JE$1048576 TA$1:TA$1048576 ACW$1:ACW$1048576 AMS$1:AMS$1048576 AWO$1:AWO$1048576 BGK$1:BGK$1048576 BQG$1:BQG$1048576 CAC$1:CAC$1048576 CJY$1:CJY$1048576 CTU$1:CTU$1048576 DDQ$1:DDQ$1048576 DNM$1:DNM$1048576 DXI$1:DXI$1048576 EHE$1:EHE$1048576 ERA$1:ERA$1048576 FAW$1:FAW$1048576 FKS$1:FKS$1048576 FUO$1:FUO$1048576 GEK$1:GEK$1048576 GOG$1:GOG$1048576 GYC$1:GYC$1048576 HHY$1:HHY$1048576 HRU$1:HRU$1048576 IBQ$1:IBQ$1048576 ILM$1:ILM$1048576 IVI$1:IVI$1048576 JFE$1:JFE$1048576 JPA$1:JPA$1048576 JYW$1:JYW$1048576 KIS$1:KIS$1048576 KSO$1:KSO$1048576 LCK$1:LCK$1048576 LMG$1:LMG$1048576 LWC$1:LWC$1048576 MFY$1:MFY$1048576 MPU$1:MPU$1048576 MZQ$1:MZQ$1048576 NJM$1:NJM$1048576 NTI$1:NTI$1048576 ODE$1:ODE$1048576 ONA$1:ONA$1048576 OWW$1:OWW$1048576 PGS$1:PGS$1048576 PQO$1:PQO$1048576 QAK$1:QAK$1048576 QKG$1:QKG$1048576 QUC$1:QUC$1048576 RDY$1:RDY$1048576 RNU$1:RNU$1048576 RXQ$1:RXQ$1048576 SHM$1:SHM$1048576 SRI$1:SRI$1048576 TBE$1:TBE$1048576 TLA$1:TLA$1048576 TUW$1:TUW$1048576 UES$1:UES$1048576 UOO$1:UOO$1048576 UYK$1:UYK$1048576 VIG$1:VIG$1048576 VSC$1:VSC$1048576 WBY$1:WBY$1048576 WLU$1:WLU$1048576 WVQ$1:WVQ$1048576">
-      <formula1>"生产环境,测试环境,开发环境"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4">
       <formula1>"生产环境,测试环境,开发环境,预发布环境,公测环境"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F13 F65537:F65549 F131073:F131085 F196609:F196621 F262145:F262157 F327681:F327693 F393217:F393229 F458753:F458765 F524289:F524301 F589825:F589837 F655361:F655373 F720897:F720909 F786433:F786445 F851969:F851981 F917505:F917517 F983041:F983053 JB4:JB13 JB65537:JB65549 JB131073:JB131085 JB196609:JB196621 JB262145:JB262157 JB327681:JB327693 JB393217:JB393229 JB458753:JB458765 JB524289:JB524301 JB589825:JB589837 JB655361:JB655373 JB720897:JB720909 JB786433:JB786445 JB851969:JB851981 JB917505:JB917517 JB983041:JB983053 SX4:SX13 SX65537:SX65549 SX131073:SX131085 SX196609:SX196621 SX262145:SX262157 SX327681:SX327693 SX393217:SX393229 SX458753:SX458765 SX524289:SX524301 SX589825:SX589837 SX655361:SX655373 SX720897:SX720909 SX786433:SX786445 SX851969:SX851981 SX917505:SX917517 SX983041:SX983053 ACT4:ACT13 ACT65537:ACT65549 ACT131073:ACT131085 ACT196609:ACT196621 ACT262145:ACT262157 ACT327681:ACT327693 ACT393217:ACT393229 ACT458753:ACT458765 ACT524289:ACT524301 ACT589825:ACT589837 ACT655361:ACT655373 ACT720897:ACT720909 ACT786433:ACT786445 ACT851969:ACT851981 ACT917505:ACT917517 ACT983041:ACT983053 AMP4:AMP13 AMP65537:AMP65549 AMP131073:AMP131085 AMP196609:AMP196621 AMP262145:AMP262157 AMP327681:AMP327693 AMP393217:AMP393229 AMP458753:AMP458765 AMP524289:AMP524301 AMP589825:AMP589837 AMP655361:AMP655373 AMP720897:AMP720909 AMP786433:AMP786445 AMP851969:AMP851981 AMP917505:AMP917517 AMP983041:AMP983053 AWL4:AWL13 AWL65537:AWL65549 AWL131073:AWL131085 AWL196609:AWL196621 AWL262145:AWL262157 AWL327681:AWL327693 AWL393217:AWL393229 AWL458753:AWL458765 AWL524289:AWL524301 AWL589825:AWL589837 AWL655361:AWL655373 AWL720897:AWL720909 AWL786433:AWL786445 AWL851969:AWL851981 AWL917505:AWL917517 AWL983041:AWL983053 BGH4:BGH13 BGH65537:BGH65549 BGH131073:BGH131085 BGH196609:BGH196621 BGH262145:BGH262157 BGH327681:BGH327693 BGH393217:BGH393229 BGH458753:BGH458765 BGH524289:BGH524301 BGH589825:BGH589837 BGH655361:BGH655373 BGH720897:BGH720909 BGH786433:BGH786445 BGH851969:BGH851981 BGH917505:BGH917517 BGH983041:BGH983053 BQD4:BQD13 BQD65537:BQD65549 BQD131073:BQD131085 BQD196609:BQD196621 BQD262145:BQD262157 BQD327681:BQD327693 BQD393217:BQD393229 BQD458753:BQD458765 BQD524289:BQD524301 BQD589825:BQD589837 BQD655361:BQD655373 BQD720897:BQD720909 BQD786433:BQD786445 BQD851969:BQD851981 BQD917505:BQD917517 BQD983041:BQD983053 BZZ4:BZZ13 BZZ65537:BZZ65549 BZZ131073:BZZ131085 BZZ196609:BZZ196621 BZZ262145:BZZ262157 BZZ327681:BZZ327693 BZZ393217:BZZ393229 BZZ458753:BZZ458765 BZZ524289:BZZ524301 BZZ589825:BZZ589837 BZZ655361:BZZ655373 BZZ720897:BZZ720909 BZZ786433:BZZ786445 BZZ851969:BZZ851981 BZZ917505:BZZ917517 BZZ983041:BZZ983053 CJV4:CJV13 CJV65537:CJV65549 CJV131073:CJV131085 CJV196609:CJV196621 CJV262145:CJV262157 CJV327681:CJV327693 CJV393217:CJV393229 CJV458753:CJV458765 CJV524289:CJV524301 CJV589825:CJV589837 CJV655361:CJV655373 CJV720897:CJV720909 CJV786433:CJV786445 CJV851969:CJV851981 CJV917505:CJV917517 CJV983041:CJV983053 CTR4:CTR13 CTR65537:CTR65549 CTR131073:CTR131085 CTR196609:CTR196621 CTR262145:CTR262157 CTR327681:CTR327693 CTR393217:CTR393229 CTR458753:CTR458765 CTR524289:CTR524301 CTR589825:CTR589837 CTR655361:CTR655373 CTR720897:CTR720909 CTR786433:CTR786445 CTR851969:CTR851981 CTR917505:CTR917517 CTR983041:CTR983053 DDN4:DDN13 DDN65537:DDN65549 DDN131073:DDN131085 DDN196609:DDN196621 DDN262145:DDN262157 DDN327681:DDN327693 DDN393217:DDN393229 DDN458753:DDN458765 DDN524289:DDN524301 DDN589825:DDN589837 DDN655361:DDN655373 DDN720897:DDN720909 DDN786433:DDN786445 DDN851969:DDN851981 DDN917505:DDN917517 DDN983041:DDN983053 DNJ4:DNJ13 DNJ65537:DNJ65549 DNJ131073:DNJ131085 DNJ196609:DNJ196621 DNJ262145:DNJ262157 DNJ327681:DNJ327693 DNJ393217:DNJ393229 DNJ458753:DNJ458765 DNJ524289:DNJ524301 DNJ589825:DNJ589837 DNJ655361:DNJ655373 DNJ720897:DNJ720909 DNJ786433:DNJ786445 DNJ851969:DNJ851981 DNJ917505:DNJ917517 DNJ983041:DNJ983053 DXF4:DXF13 DXF65537:DXF65549 DXF131073:DXF131085 DXF196609:DXF196621 DXF262145:DXF262157 DXF327681:DXF327693 DXF393217:DXF393229 DXF458753:DXF458765 DXF524289:DXF524301 DXF589825:DXF589837 DXF655361:DXF655373 DXF720897:DXF720909 DXF786433:DXF786445 DXF851969:DXF851981 DXF917505:DXF917517 DXF983041:DXF983053 EHB4:EHB13 EHB65537:EHB65549 EHB131073:EHB131085 EHB196609:EHB196621 EHB262145:EHB262157 EHB327681:EHB327693 EHB393217:EHB393229 EHB458753:EHB458765 EHB524289:EHB524301 EHB589825:EHB589837 EHB655361:EHB655373 EHB720897:EHB720909 EHB786433:EHB786445 EHB851969:EHB851981 EHB917505:EHB917517 EHB983041:EHB983053 EQX4:EQX13 EQX65537:EQX65549 EQX131073:EQX131085 EQX196609:EQX196621 EQX262145:EQX262157 EQX327681:EQX327693 EQX393217:EQX393229 EQX458753:EQX458765 EQX524289:EQX524301 EQX589825:EQX589837 EQX655361:EQX655373 EQX720897:EQX720909 EQX786433:EQX786445 EQX851969:EQX851981 EQX917505:EQX917517 EQX983041:EQX983053 FAT4:FAT13 FAT65537:FAT65549 FAT131073:FAT131085 FAT196609:FAT196621 FAT262145:FAT262157 FAT327681:FAT327693 FAT393217:FAT393229 FAT458753:FAT458765 FAT524289:FAT524301 FAT589825:FAT589837 FAT655361:FAT655373 FAT720897:FAT720909 FAT786433:FAT786445 FAT851969:FAT851981 FAT917505:FAT917517 FAT983041:FAT983053 FKP4:FKP13 FKP65537:FKP65549 FKP131073:FKP131085 FKP196609:FKP196621 FKP262145:FKP262157 FKP327681:FKP327693 FKP393217:FKP393229 FKP458753:FKP458765 FKP524289:FKP524301 FKP589825:FKP589837 FKP655361:FKP655373 FKP720897:FKP720909 FKP786433:FKP786445 FKP851969:FKP851981 FKP917505:FKP917517 FKP983041:FKP983053 FUL4:FUL13 FUL65537:FUL65549 FUL131073:FUL131085 FUL196609:FUL196621 FUL262145:FUL262157 FUL327681:FUL327693 FUL393217:FUL393229 FUL458753:FUL458765 FUL524289:FUL524301 FUL589825:FUL589837 FUL655361:FUL655373 FUL720897:FUL720909 FUL786433:FUL786445 FUL851969:FUL851981 FUL917505:FUL917517 FUL983041:FUL983053 GEH4:GEH13 GEH65537:GEH65549 GEH131073:GEH131085 GEH196609:GEH196621 GEH262145:GEH262157 GEH327681:GEH327693 GEH393217:GEH393229 GEH458753:GEH458765 GEH524289:GEH524301 GEH589825:GEH589837 GEH655361:GEH655373 GEH720897:GEH720909 GEH786433:GEH786445 GEH851969:GEH851981 GEH917505:GEH917517 GEH983041:GEH983053 GOD4:GOD13 GOD65537:GOD65549 GOD131073:GOD131085 GOD196609:GOD196621 GOD262145:GOD262157 GOD327681:GOD327693 GOD393217:GOD393229 GOD458753:GOD458765 GOD524289:GOD524301 GOD589825:GOD589837 GOD655361:GOD655373 GOD720897:GOD720909 GOD786433:GOD786445 GOD851969:GOD851981 GOD917505:GOD917517 GOD983041:GOD983053 GXZ4:GXZ13 GXZ65537:GXZ65549 GXZ131073:GXZ131085 GXZ196609:GXZ196621 GXZ262145:GXZ262157 GXZ327681:GXZ327693 GXZ393217:GXZ393229 GXZ458753:GXZ458765 GXZ524289:GXZ524301 GXZ589825:GXZ589837 GXZ655361:GXZ655373 GXZ720897:GXZ720909 GXZ786433:GXZ786445 GXZ851969:GXZ851981 GXZ917505:GXZ917517 GXZ983041:GXZ983053 HHV4:HHV13 HHV65537:HHV65549 HHV131073:HHV131085 HHV196609:HHV196621 HHV262145:HHV262157 HHV327681:HHV327693 HHV393217:HHV393229 HHV458753:HHV458765 HHV524289:HHV524301 HHV589825:HHV589837 HHV655361:HHV655373 HHV720897:HHV720909 HHV786433:HHV786445 HHV851969:HHV851981 HHV917505:HHV917517 HHV983041:HHV983053 HRR4:HRR13 HRR65537:HRR65549 HRR131073:HRR131085 HRR196609:HRR196621 HRR262145:HRR262157 HRR327681:HRR327693 HRR393217:HRR393229 HRR458753:HRR458765 HRR524289:HRR524301 HRR589825:HRR589837 HRR655361:HRR655373 HRR720897:HRR720909 HRR786433:HRR786445 HRR851969:HRR851981 HRR917505:HRR917517 HRR983041:HRR983053 IBN4:IBN13 IBN65537:IBN65549 IBN131073:IBN131085 IBN196609:IBN196621 IBN262145:IBN262157 IBN327681:IBN327693 IBN393217:IBN393229 IBN458753:IBN458765 IBN524289:IBN524301 IBN589825:IBN589837 IBN655361:IBN655373 IBN720897:IBN720909 IBN786433:IBN786445 IBN851969:IBN851981 IBN917505:IBN917517 IBN983041:IBN983053 ILJ4:ILJ13 ILJ65537:ILJ65549 ILJ131073:ILJ131085 ILJ196609:ILJ196621 ILJ262145:ILJ262157 ILJ327681:ILJ327693 ILJ393217:ILJ393229 ILJ458753:ILJ458765 ILJ524289:ILJ524301 ILJ589825:ILJ589837 ILJ655361:ILJ655373 ILJ720897:ILJ720909 ILJ786433:ILJ786445 ILJ851969:ILJ851981 ILJ917505:ILJ917517 ILJ983041:ILJ983053 IVF4:IVF13 IVF65537:IVF65549 IVF131073:IVF131085 IVF196609:IVF196621 IVF262145:IVF262157 IVF327681:IVF327693 IVF393217:IVF393229 IVF458753:IVF458765 IVF524289:IVF524301 IVF589825:IVF589837 IVF655361:IVF655373 IVF720897:IVF720909 IVF786433:IVF786445 IVF851969:IVF851981 IVF917505:IVF917517 IVF983041:IVF983053 JFB4:JFB13 JFB65537:JFB65549 JFB131073:JFB131085 JFB196609:JFB196621 JFB262145:JFB262157 JFB327681:JFB327693 JFB393217:JFB393229 JFB458753:JFB458765 JFB524289:JFB524301 JFB589825:JFB589837 JFB655361:JFB655373 JFB720897:JFB720909 JFB786433:JFB786445 JFB851969:JFB851981 JFB917505:JFB917517 JFB983041:JFB983053 JOX4:JOX13 JOX65537:JOX65549 JOX131073:JOX131085 JOX196609:JOX196621 JOX262145:JOX262157 JOX327681:JOX327693 JOX393217:JOX393229 JOX458753:JOX458765 JOX524289:JOX524301 JOX589825:JOX589837 JOX655361:JOX655373 JOX720897:JOX720909 JOX786433:JOX786445 JOX851969:JOX851981 JOX917505:JOX917517 JOX983041:JOX983053 JYT4:JYT13 JYT65537:JYT65549 JYT131073:JYT131085 JYT196609:JYT196621 JYT262145:JYT262157 JYT327681:JYT327693 JYT393217:JYT393229 JYT458753:JYT458765 JYT524289:JYT524301 JYT589825:JYT589837 JYT655361:JYT655373 JYT720897:JYT720909 JYT786433:JYT786445 JYT851969:JYT851981 JYT917505:JYT917517 JYT983041:JYT983053 KIP4:KIP13 KIP65537:KIP65549 KIP131073:KIP131085 KIP196609:KIP196621 KIP262145:KIP262157 KIP327681:KIP327693 KIP393217:KIP393229 KIP458753:KIP458765 KIP524289:KIP524301 KIP589825:KIP589837 KIP655361:KIP655373 KIP720897:KIP720909 KIP786433:KIP786445 KIP851969:KIP851981 KIP917505:KIP917517 KIP983041:KIP983053 KSL4:KSL13 KSL65537:KSL65549 KSL131073:KSL131085 KSL196609:KSL196621 KSL262145:KSL262157 KSL327681:KSL327693 KSL393217:KSL393229 KSL458753:KSL458765 KSL524289:KSL524301 KSL589825:KSL589837 KSL655361:KSL655373 KSL720897:KSL720909 KSL786433:KSL786445 KSL851969:KSL851981 KSL917505:KSL917517 KSL983041:KSL983053 LCH4:LCH13 LCH65537:LCH65549 LCH131073:LCH131085 LCH196609:LCH196621 LCH262145:LCH262157 LCH327681:LCH327693 LCH393217:LCH393229 LCH458753:LCH458765 LCH524289:LCH524301 LCH589825:LCH589837 LCH655361:LCH655373 LCH720897:LCH720909 LCH786433:LCH786445 LCH851969:LCH851981 LCH917505:LCH917517 LCH983041:LCH983053 LMD4:LMD13 LMD65537:LMD65549 LMD131073:LMD131085 LMD196609:LMD196621 LMD262145:LMD262157 LMD327681:LMD327693 LMD393217:LMD393229 LMD458753:LMD458765 LMD524289:LMD524301 LMD589825:LMD589837 LMD655361:LMD655373 LMD720897:LMD720909 LMD786433:LMD786445 LMD851969:LMD851981 LMD917505:LMD917517 LMD983041:LMD983053 LVZ4:LVZ13 LVZ65537:LVZ65549 LVZ131073:LVZ131085 LVZ196609:LVZ196621 LVZ262145:LVZ262157 LVZ327681:LVZ327693 LVZ393217:LVZ393229 LVZ458753:LVZ458765 LVZ524289:LVZ524301 LVZ589825:LVZ589837 LVZ655361:LVZ655373 LVZ720897:LVZ720909 LVZ786433:LVZ786445 LVZ851969:LVZ851981 LVZ917505:LVZ917517 LVZ983041:LVZ983053 MFV4:MFV13 MFV65537:MFV65549 MFV131073:MFV131085 MFV196609:MFV196621 MFV262145:MFV262157 MFV327681:MFV327693 MFV393217:MFV393229 MFV458753:MFV458765 MFV524289:MFV524301 MFV589825:MFV589837 MFV655361:MFV655373 MFV720897:MFV720909 MFV786433:MFV786445 MFV851969:MFV851981 MFV917505:MFV917517 MFV983041:MFV983053 MPR4:MPR13 MPR65537:MPR65549 MPR131073:MPR131085 MPR196609:MPR196621 MPR262145:MPR262157 MPR327681:MPR327693 MPR393217:MPR393229 MPR458753:MPR458765 MPR524289:MPR524301 MPR589825:MPR589837 MPR655361:MPR655373 MPR720897:MPR720909 MPR786433:MPR786445 MPR851969:MPR851981 MPR917505:MPR917517 MPR983041:MPR983053 MZN4:MZN13 MZN65537:MZN65549 MZN131073:MZN131085 MZN196609:MZN196621 MZN262145:MZN262157 MZN327681:MZN327693 MZN393217:MZN393229 MZN458753:MZN458765 MZN524289:MZN524301 MZN589825:MZN589837 MZN655361:MZN655373 MZN720897:MZN720909 MZN786433:MZN786445 MZN851969:MZN851981 MZN917505:MZN917517 MZN983041:MZN983053 NJJ4:NJJ13 NJJ65537:NJJ65549 NJJ131073:NJJ131085 NJJ196609:NJJ196621 NJJ262145:NJJ262157 NJJ327681:NJJ327693 NJJ393217:NJJ393229 NJJ458753:NJJ458765 NJJ524289:NJJ524301 NJJ589825:NJJ589837 NJJ655361:NJJ655373 NJJ720897:NJJ720909 NJJ786433:NJJ786445 NJJ851969:NJJ851981 NJJ917505:NJJ917517 NJJ983041:NJJ983053 NTF4:NTF13 NTF65537:NTF65549 NTF131073:NTF131085 NTF196609:NTF196621 NTF262145:NTF262157 NTF327681:NTF327693 NTF393217:NTF393229 NTF458753:NTF458765 NTF524289:NTF524301 NTF589825:NTF589837 NTF655361:NTF655373 NTF720897:NTF720909 NTF786433:NTF786445 NTF851969:NTF851981 NTF917505:NTF917517 NTF983041:NTF983053 ODB4:ODB13 ODB65537:ODB65549 ODB131073:ODB131085 ODB196609:ODB196621 ODB262145:ODB262157 ODB327681:ODB327693 ODB393217:ODB393229 ODB458753:ODB458765 ODB524289:ODB524301 ODB589825:ODB589837 ODB655361:ODB655373 ODB720897:ODB720909 ODB786433:ODB786445 ODB851969:ODB851981 ODB917505:ODB917517 ODB983041:ODB983053 OMX4:OMX13 OMX65537:OMX65549 OMX131073:OMX131085 OMX196609:OMX196621 OMX262145:OMX262157 OMX327681:OMX327693 OMX393217:OMX393229 OMX458753:OMX458765 OMX524289:OMX524301 OMX589825:OMX589837 OMX655361:OMX655373 OMX720897:OMX720909 OMX786433:OMX786445 OMX851969:OMX851981 OMX917505:OMX917517 OMX983041:OMX983053 OWT4:OWT13 OWT65537:OWT65549 OWT131073:OWT131085 OWT196609:OWT196621 OWT262145:OWT262157 OWT327681:OWT327693 OWT393217:OWT393229 OWT458753:OWT458765 OWT524289:OWT524301 OWT589825:OWT589837 OWT655361:OWT655373 OWT720897:OWT720909 OWT786433:OWT786445 OWT851969:OWT851981 OWT917505:OWT917517 OWT983041:OWT983053 PGP4:PGP13 PGP65537:PGP65549 PGP131073:PGP131085 PGP196609:PGP196621 PGP262145:PGP262157 PGP327681:PGP327693 PGP393217:PGP393229 PGP458753:PGP458765 PGP524289:PGP524301 PGP589825:PGP589837 PGP655361:PGP655373 PGP720897:PGP720909 PGP786433:PGP786445 PGP851969:PGP851981 PGP917505:PGP917517 PGP983041:PGP983053 PQL4:PQL13 PQL65537:PQL65549 PQL131073:PQL131085 PQL196609:PQL196621 PQL262145:PQL262157 PQL327681:PQL327693 PQL393217:PQL393229 PQL458753:PQL458765 PQL524289:PQL524301 PQL589825:PQL589837 PQL655361:PQL655373 PQL720897:PQL720909 PQL786433:PQL786445 PQL851969:PQL851981 PQL917505:PQL917517 PQL983041:PQL983053 QAH4:QAH13 QAH65537:QAH65549 QAH131073:QAH131085 QAH196609:QAH196621 QAH262145:QAH262157 QAH327681:QAH327693 QAH393217:QAH393229 QAH458753:QAH458765 QAH524289:QAH524301 QAH589825:QAH589837 QAH655361:QAH655373 QAH720897:QAH720909 QAH786433:QAH786445 QAH851969:QAH851981 QAH917505:QAH917517 QAH983041:QAH983053 QKD4:QKD13 QKD65537:QKD65549 QKD131073:QKD131085 QKD196609:QKD196621 QKD262145:QKD262157 QKD327681:QKD327693 QKD393217:QKD393229 QKD458753:QKD458765 QKD524289:QKD524301 QKD589825:QKD589837 QKD655361:QKD655373 QKD720897:QKD720909 QKD786433:QKD786445 QKD851969:QKD851981 QKD917505:QKD917517 QKD983041:QKD983053 QTZ4:QTZ13 QTZ65537:QTZ65549 QTZ131073:QTZ131085 QTZ196609:QTZ196621 QTZ262145:QTZ262157 QTZ327681:QTZ327693 QTZ393217:QTZ393229 QTZ458753:QTZ458765 QTZ524289:QTZ524301 QTZ589825:QTZ589837 QTZ655361:QTZ655373 QTZ720897:QTZ720909 QTZ786433:QTZ786445 QTZ851969:QTZ851981 QTZ917505:QTZ917517 QTZ983041:QTZ983053 RDV4:RDV13 RDV65537:RDV65549 RDV131073:RDV131085 RDV196609:RDV196621 RDV262145:RDV262157 RDV327681:RDV327693 RDV393217:RDV393229 RDV458753:RDV458765 RDV524289:RDV524301 RDV589825:RDV589837 RDV655361:RDV655373 RDV720897:RDV720909 RDV786433:RDV786445 RDV851969:RDV851981 RDV917505:RDV917517 RDV983041:RDV983053 RNR4:RNR13 RNR65537:RNR65549 RNR131073:RNR131085 RNR196609:RNR196621 RNR262145:RNR262157 RNR327681:RNR327693 RNR393217:RNR393229 RNR458753:RNR458765 RNR524289:RNR524301 RNR589825:RNR589837 RNR655361:RNR655373 RNR720897:RNR720909 RNR786433:RNR786445 RNR851969:RNR851981 RNR917505:RNR917517 RNR983041:RNR983053 RXN4:RXN13 RXN65537:RXN65549 RXN131073:RXN131085 RXN196609:RXN196621 RXN262145:RXN262157 RXN327681:RXN327693 RXN393217:RXN393229 RXN458753:RXN458765 RXN524289:RXN524301 RXN589825:RXN589837 RXN655361:RXN655373 RXN720897:RXN720909 RXN786433:RXN786445 RXN851969:RXN851981 RXN917505:RXN917517 RXN983041:RXN983053 SHJ4:SHJ13 SHJ65537:SHJ65549 SHJ131073:SHJ131085 SHJ196609:SHJ196621 SHJ262145:SHJ262157 SHJ327681:SHJ327693 SHJ393217:SHJ393229 SHJ458753:SHJ458765 SHJ524289:SHJ524301 SHJ589825:SHJ589837 SHJ655361:SHJ655373 SHJ720897:SHJ720909 SHJ786433:SHJ786445 SHJ851969:SHJ851981 SHJ917505:SHJ917517 SHJ983041:SHJ983053 SRF4:SRF13 SRF65537:SRF65549 SRF131073:SRF131085 SRF196609:SRF196621 SRF262145:SRF262157 SRF327681:SRF327693 SRF393217:SRF393229 SRF458753:SRF458765 SRF524289:SRF524301 SRF589825:SRF589837 SRF655361:SRF655373 SRF720897:SRF720909 SRF786433:SRF786445 SRF851969:SRF851981 SRF917505:SRF917517 SRF983041:SRF983053 TBB4:TBB13 TBB65537:TBB65549 TBB131073:TBB131085 TBB196609:TBB196621 TBB262145:TBB262157 TBB327681:TBB327693 TBB393217:TBB393229 TBB458753:TBB458765 TBB524289:TBB524301 TBB589825:TBB589837 TBB655361:TBB655373 TBB720897:TBB720909 TBB786433:TBB786445 TBB851969:TBB851981 TBB917505:TBB917517 TBB983041:TBB983053 TKX4:TKX13 TKX65537:TKX65549 TKX131073:TKX131085 TKX196609:TKX196621 TKX262145:TKX262157 TKX327681:TKX327693 TKX393217:TKX393229 TKX458753:TKX458765 TKX524289:TKX524301 TKX589825:TKX589837 TKX655361:TKX655373 TKX720897:TKX720909 TKX786433:TKX786445 TKX851969:TKX851981 TKX917505:TKX917517 TKX983041:TKX983053 TUT4:TUT13 TUT65537:TUT65549 TUT131073:TUT131085 TUT196609:TUT196621 TUT262145:TUT262157 TUT327681:TUT327693 TUT393217:TUT393229 TUT458753:TUT458765 TUT524289:TUT524301 TUT589825:TUT589837 TUT655361:TUT655373 TUT720897:TUT720909 TUT786433:TUT786445 TUT851969:TUT851981 TUT917505:TUT917517 TUT983041:TUT983053 UEP4:UEP13 UEP65537:UEP65549 UEP131073:UEP131085 UEP196609:UEP196621 UEP262145:UEP262157 UEP327681:UEP327693 UEP393217:UEP393229 UEP458753:UEP458765 UEP524289:UEP524301 UEP589825:UEP589837 UEP655361:UEP655373 UEP720897:UEP720909 UEP786433:UEP786445 UEP851969:UEP851981 UEP917505:UEP917517 UEP983041:UEP983053 UOL4:UOL13 UOL65537:UOL65549 UOL131073:UOL131085 UOL196609:UOL196621 UOL262145:UOL262157 UOL327681:UOL327693 UOL393217:UOL393229 UOL458753:UOL458765 UOL524289:UOL524301 UOL589825:UOL589837 UOL655361:UOL655373 UOL720897:UOL720909 UOL786433:UOL786445 UOL851969:UOL851981 UOL917505:UOL917517 UOL983041:UOL983053 UYH4:UYH13 UYH65537:UYH65549 UYH131073:UYH131085 UYH196609:UYH196621 UYH262145:UYH262157 UYH327681:UYH327693 UYH393217:UYH393229 UYH458753:UYH458765 UYH524289:UYH524301 UYH589825:UYH589837 UYH655361:UYH655373 UYH720897:UYH720909 UYH786433:UYH786445 UYH851969:UYH851981 UYH917505:UYH917517 UYH983041:UYH983053 VID4:VID13 VID65537:VID65549 VID131073:VID131085 VID196609:VID196621 VID262145:VID262157 VID327681:VID327693 VID393217:VID393229 VID458753:VID458765 VID524289:VID524301 VID589825:VID589837 VID655361:VID655373 VID720897:VID720909 VID786433:VID786445 VID851969:VID851981 VID917505:VID917517 VID983041:VID983053 VRZ4:VRZ13 VRZ65537:VRZ65549 VRZ131073:VRZ131085 VRZ196609:VRZ196621 VRZ262145:VRZ262157 VRZ327681:VRZ327693 VRZ393217:VRZ393229 VRZ458753:VRZ458765 VRZ524289:VRZ524301 VRZ589825:VRZ589837 VRZ655361:VRZ655373 VRZ720897:VRZ720909 VRZ786433:VRZ786445 VRZ851969:VRZ851981 VRZ917505:VRZ917517 VRZ983041:VRZ983053 WBV4:WBV13 WBV65537:WBV65549 WBV131073:WBV131085 WBV196609:WBV196621 WBV262145:WBV262157 WBV327681:WBV327693 WBV393217:WBV393229 WBV458753:WBV458765 WBV524289:WBV524301 WBV589825:WBV589837 WBV655361:WBV655373 WBV720897:WBV720909 WBV786433:WBV786445 WBV851969:WBV851981 WBV917505:WBV917517 WBV983041:WBV983053 WLR4:WLR13 WLR65537:WLR65549 WLR131073:WLR131085 WLR196609:WLR196621 WLR262145:WLR262157 WLR327681:WLR327693 WLR393217:WLR393229 WLR458753:WLR458765 WLR524289:WLR524301 WLR589825:WLR589837 WLR655361:WLR655373 WLR720897:WLR720909 WLR786433:WLR786445 WLR851969:WLR851981 WLR917505:WLR917517 WLR983041:WLR983053 WVN4:WVN13 WVN65537:WVN65549 WVN131073:WVN131085 WVN196609:WVN196621 WVN262145:WVN262157 WVN327681:WVN327693 WVN393217:WVN393229 WVN458753:WVN458765 WVN524289:WVN524301 WVN589825:WVN589837 WVN655361:WVN655373 WVN720897:WVN720909 WVN786433:WVN786445 WVN851969:WVN851981 WVN917505:WVN917517 WVN983041:WVN983053">
       <formula1>"新增,修改,删除"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I3 I5:I1048576 JE$1:JE$1048576 TA$1:TA$1048576 ACW$1:ACW$1048576 AMS$1:AMS$1048576 AWO$1:AWO$1048576 BGK$1:BGK$1048576 BQG$1:BQG$1048576 CAC$1:CAC$1048576 CJY$1:CJY$1048576 CTU$1:CTU$1048576 DDQ$1:DDQ$1048576 DNM$1:DNM$1048576 DXI$1:DXI$1048576 EHE$1:EHE$1048576 ERA$1:ERA$1048576 FAW$1:FAW$1048576 FKS$1:FKS$1048576 FUO$1:FUO$1048576 GEK$1:GEK$1048576 GOG$1:GOG$1048576 GYC$1:GYC$1048576 HHY$1:HHY$1048576 HRU$1:HRU$1048576 IBQ$1:IBQ$1048576 ILM$1:ILM$1048576 IVI$1:IVI$1048576 JFE$1:JFE$1048576 JPA$1:JPA$1048576 JYW$1:JYW$1048576 KIS$1:KIS$1048576 KSO$1:KSO$1048576 LCK$1:LCK$1048576 LMG$1:LMG$1048576 LWC$1:LWC$1048576 MFY$1:MFY$1048576 MPU$1:MPU$1048576 MZQ$1:MZQ$1048576 NJM$1:NJM$1048576 NTI$1:NTI$1048576 ODE$1:ODE$1048576 ONA$1:ONA$1048576 OWW$1:OWW$1048576 PGS$1:PGS$1048576 PQO$1:PQO$1048576 QAK$1:QAK$1048576 QKG$1:QKG$1048576 QUC$1:QUC$1048576 RDY$1:RDY$1048576 RNU$1:RNU$1048576 RXQ$1:RXQ$1048576 SHM$1:SHM$1048576 SRI$1:SRI$1048576 TBE$1:TBE$1048576 TLA$1:TLA$1048576 TUW$1:TUW$1048576 UES$1:UES$1048576 UOO$1:UOO$1048576 UYK$1:UYK$1048576 VIG$1:VIG$1048576 VSC$1:VSC$1048576 WBY$1:WBY$1048576 WLU$1:WLU$1048576 WVQ$1:WVQ$1048576">
+      <formula1>"生产环境,测试环境,开发环境"</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
